--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\elec\BECF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC (updated)\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D663B-3F40-4649-B229-35FA03CF33DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="25608" windowHeight="14472" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId6"/>
     <sheet name="BECF-new" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -407,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -556,7 +557,7 @@
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,1260 +574,1260 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:AK17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:AK17" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A115:AK124" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A115:AK124" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0900-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0900-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0900-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0900-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0900-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0900-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0900-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0900-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0900-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0900-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0900-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0900-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0900-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0900-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0900-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A127:AK136" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A127:AK136" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0A00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0A00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0A00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0A00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0A00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A139:AK148" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A139:AK148" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0B00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0B00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0B00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0B00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0B00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0B00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0B00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0B00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0B00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0B00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0B00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0B00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0B00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0B00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0B00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0B00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A151:AK160" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A151:AK160" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0C00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0C00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0C00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0C00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0C00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0C00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0C00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0C00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0C00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0C00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0C00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0C00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0C00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0C00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0C00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A163:AK172" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A163:AK172" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0D00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0D00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0D00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0D00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0D00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0D00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0D00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0D00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0D00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0D00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0D00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table116" displayName="Table116" ref="A8:AK17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table116" displayName="Table116" ref="A8:AK17" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0E00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0E00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0E00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0E00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0E00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0E00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0E00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0E00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0E00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0E00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0E00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0E00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0E00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0E00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0E00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0E00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0E00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0E00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0E00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0E00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0E00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0E00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0E00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0E00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0E00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0E00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0E00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0E00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table217" displayName="Table217" ref="A20:AK29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table217" displayName="Table217" ref="A20:AK29" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0F00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0F00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0F00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0F00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0F00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0F00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0F00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0F00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0F00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0F00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0F00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0F00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0F00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0F00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0F00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0F00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0F00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0F00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0F00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0F00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0F00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0F00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0F00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0F00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table318" displayName="Table318" ref="A32:AK41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table318" displayName="Table318" ref="A32:AK41" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1000-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1000-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1000-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1000-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1000-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1000-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1000-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1000-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1000-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1000-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1000-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1000-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1000-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1000-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1000-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1000-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1000-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1000-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1000-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1000-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1000-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table419" displayName="Table419" ref="A44:AK53" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table419" displayName="Table419" ref="A44:AK53" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1100-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1100-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1100-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1100-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1100-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1100-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1100-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1100-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1100-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1100-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1100-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1100-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1100-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1100-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1100-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1100-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1100-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1100-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1100-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1100-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1100-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1100-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1100-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table520" displayName="Table520" ref="A56:AK65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table520" displayName="Table520" ref="A56:AK65" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1200-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1200-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1200-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1200-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1200-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1200-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1200-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1200-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1200-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1200-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1200-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1200-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1200-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1200-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1200-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1200-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1200-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1200-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1200-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1200-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1200-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1200-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1200-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1200-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1200-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1200-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1200-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1200-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A20:AK29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A20:AK29" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table621" displayName="Table621" ref="A68:AK77" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table621" displayName="Table621" ref="A68:AK77" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1300-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1300-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1300-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1300-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1300-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1300-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1300-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1300-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1300-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1300-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1300-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1300-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1300-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1300-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1300-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1300-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1300-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1300-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1300-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1300-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1300-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1300-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1300-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1300-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1300-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table722" displayName="Table722" ref="A80:AK89" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table722" displayName="Table722" ref="A80:AK89" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1400-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1400-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1400-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1400-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1400-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1400-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1400-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1400-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1400-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1400-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1400-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1400-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1400-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1400-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1400-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1400-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1400-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1400-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1400-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1400-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1400-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1400-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1400-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1400-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1400-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table823" displayName="Table823" ref="A92:AK101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table823" displayName="Table823" ref="A92:AK101" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1500-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1500-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1500-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1500-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1500-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1500-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1500-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1500-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1500-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1500-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1500-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1500-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1500-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1500-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1500-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1500-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1500-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1500-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1500-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1500-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1500-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1500-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1500-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1500-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table924" displayName="Table924" ref="A104:AK113" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table924" displayName="Table924" ref="A104:AK113" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1600-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1600-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1600-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1600-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1600-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1600-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1600-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1600-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1600-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1600-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1600-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1600-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1600-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1600-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1600-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1600-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1600-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1600-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1600-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1600-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1600-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1600-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1600-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1600-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1600-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1600-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1600-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1600-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1600-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1600-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table1025" displayName="Table1025" ref="A116:AK125" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table1025" displayName="Table1025" ref="A116:AK125" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1700-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1700-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1700-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1700-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1700-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1700-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1700-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1700-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1700-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1700-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1700-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1700-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1700-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1700-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1700-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1700-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1700-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1700-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1700-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1700-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1700-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1700-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1700-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1700-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1700-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1700-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1700-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1700-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1700-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1700-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table1126" displayName="Table1126" ref="A128:AK137" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table1126" displayName="Table1126" ref="A128:AK137" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1800-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1800-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1800-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1800-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1800-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1800-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1800-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1800-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1800-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1800-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1800-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1800-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1800-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1800-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1800-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1800-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1800-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1800-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1800-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1800-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1800-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1800-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1800-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1800-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1800-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1800-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1800-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1800-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1800-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table1227" displayName="Table1227" ref="A140:AK149" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table1227" displayName="Table1227" ref="A140:AK149" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1900-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1900-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1900-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1900-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1900-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1900-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1900-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1900-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1900-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1900-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1900-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1900-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1900-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1900-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1900-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1900-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1900-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1900-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1900-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1900-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1900-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1900-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1900-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1900-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1900-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1900-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1900-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1900-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1900-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1900-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table1328" displayName="Table1328" ref="A152:AK161" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table1328" displayName="Table1328" ref="A152:AK161" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1A00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1A00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1A00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1A00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1A00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1A00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1A00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1A00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1A00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1A00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1A00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1A00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1A00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1A00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1A00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1A00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1A00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1A00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1A00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1A00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1A00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1A00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1A00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1A00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1A00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1A00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1A00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1A00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1A00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1A00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table1429" displayName="Table1429" ref="A164:AK173" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table1429" displayName="Table1429" ref="A164:AK173" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1B00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1B00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1B00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1B00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1B00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1B00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1B00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1B00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1B00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1B00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1B00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1B00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1B00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-1B00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-1B00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-1B00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-1B00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-1B00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-1B00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-1B00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-1B00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-1B00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-1B00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-1B00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-1B00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-1B00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-1B00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-1B00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-1B00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-1B00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A32:AK41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A32:AK41" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A44:AK52" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A44:AK52" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0300-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0300-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A55:AK64" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A55:AK64" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0400-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0400-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0400-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0400-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0400-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0400-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0400-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0400-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0400-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A67:AK76" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A67:AK76" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0500-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0500-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0500-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0500-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0500-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0500-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0500-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0500-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0500-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0500-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0500-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A79:AK88" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A79:AK88" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0600-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0600-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0600-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0600-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0600-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0600-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0600-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A91:AK100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A91:AK100" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0700-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0700-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0700-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0700-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0700-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0700-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0700-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0700-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0700-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0700-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0700-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0700-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0700-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A103:AK112" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A103:AK112" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0800-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0800-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0800-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0800-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0800-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0800-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0800-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0800-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0800-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0800-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0800-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0800-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0800-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0800-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0800-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0800-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2094,24 +2095,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="82.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2119,135 +2120,135 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2255,44 +2256,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="9"/>
+    <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>10689.36</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>5189.37</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>24850.85</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>5388.8</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>11080</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>3783.89</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>4969.8599999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>19449.259999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
@@ -3422,12 +3423,12 @@
         <v>87438.65</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>71</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>73</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
@@ -4557,12 +4558,12 @@
         <v>7607.06</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>90.45</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>74</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>266.77999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
@@ -5692,12 +5693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>34</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>72</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>73</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>2</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>3</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>74</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>112.56</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>75</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>4</v>
       </c>
@@ -6601,7 +6602,7 @@
         <v>630.4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>76</v>
       </c>
@@ -6714,12 +6715,12 @@
         <v>451.2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>34</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>71</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>983.78</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>72</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>73</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>3</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>74</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>75</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>4</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>76</v>
       </c>
@@ -7849,12 +7850,12 @@
         <v>991.8</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>34</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>71</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>217.13</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>72</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>73</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>507.03</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>2</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>3</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>74</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>526.59</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>75</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>4</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>5044.47</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>76</v>
       </c>
@@ -8984,12 +8985,12 @@
         <v>42161.2</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>34</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>71</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>1055.6099999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>72</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>73</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>7920.16</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>2</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>3</v>
       </c>
@@ -9667,7 +9668,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>74</v>
       </c>
@@ -9780,7 +9781,7 @@
         <v>1098.28</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>75</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>4601.46</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>6833.35</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>76</v>
       </c>
@@ -10119,12 +10120,12 @@
         <v>9498.09</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>34</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>71</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>262.83</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>72</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>127.77</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>73</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>2</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>3</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>74</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>75</v>
       </c>
@@ -11028,7 +11029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>4</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>638.45000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>76</v>
       </c>
@@ -11254,12 +11255,12 @@
         <v>7423.79</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>34</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>71</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>6674.9</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>72</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>585.65</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>73</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>11976.31</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>3576.8</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>3</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>74</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>475.87</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>75</v>
       </c>
@@ -12163,7 +12164,7 @@
         <v>204.47</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>4</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>2743.37</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>76</v>
       </c>
@@ -12389,12 +12390,12 @@
         <v>874.35</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>34</v>
       </c>
@@ -12507,7 +12508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>71</v>
       </c>
@@ -12620,7 +12621,7 @@
         <v>261.17</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>72</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>73</v>
       </c>
@@ -12846,7 +12847,7 @@
         <v>515.01</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>2</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>3</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>74</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>1247.69</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>75</v>
       </c>
@@ -13298,7 +13299,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>4</v>
       </c>
@@ -13411,7 +13412,7 @@
         <v>1133.6500000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>76</v>
       </c>
@@ -13524,12 +13525,12 @@
         <v>17302.38</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>34</v>
       </c>
@@ -13642,7 +13643,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>71</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>682.67</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>72</v>
       </c>
@@ -13868,7 +13869,7 @@
         <v>368.45</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>73</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>2</v>
       </c>
@@ -14094,7 +14095,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>3</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>74</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>75</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>76.72</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>4</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>1623.68</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>76</v>
       </c>
@@ -14659,12 +14660,12 @@
         <v>955.31</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>34</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>71</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>43.37</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>72</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>73</v>
       </c>
@@ -15116,7 +15117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>2</v>
       </c>
@@ -15229,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>3</v>
       </c>
@@ -15342,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>74</v>
       </c>
@@ -15455,7 +15456,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>75</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>4</v>
       </c>
@@ -15681,7 +15682,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>76</v>
       </c>
@@ -15794,12 +15795,12 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>34</v>
       </c>
@@ -15912,7 +15913,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>71</v>
       </c>
@@ -16025,7 +16026,7 @@
         <v>132.87</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>72</v>
       </c>
@@ -16138,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>73</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>2</v>
       </c>
@@ -16364,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>3</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>74</v>
       </c>
@@ -16590,7 +16591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>75</v>
       </c>
@@ -16703,7 +16704,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>4</v>
       </c>
@@ -16816,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>76</v>
       </c>
@@ -16929,12 +16930,12 @@
         <v>63.98</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>34</v>
       </c>
@@ -17047,7 +17048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>71</v>
       </c>
@@ -17160,7 +17161,7 @@
         <v>62.28</v>
       </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>72</v>
       </c>
@@ -17273,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>73</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>2</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>3</v>
       </c>
@@ -17612,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>74</v>
       </c>
@@ -17725,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>75</v>
       </c>
@@ -17838,7 +17839,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>4</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>76</v>
       </c>
@@ -18086,44 +18087,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="9"/>
+    <col min="1" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -18236,7 +18237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>38728.22</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
@@ -18462,7 +18463,7 @@
         <v>7933.72</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>119246.56</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>36792.699999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -18801,7 +18802,7 @@
         <v>76784.05</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>17450.98</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
@@ -19027,7 +19028,7 @@
         <v>9893.5300000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -19140,7 +19141,7 @@
         <v>37158.31</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
@@ -19253,12 +19254,12 @@
         <v>452429.84</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
@@ -19371,7 +19372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>71</v>
       </c>
@@ -19484,7 +19485,7 @@
         <v>324.02999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
@@ -19597,7 +19598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>73</v>
       </c>
@@ -19710,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
@@ -19823,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
@@ -19936,7 +19937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
@@ -20049,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -20275,7 +20276,7 @@
         <v>162.88999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
@@ -20388,12 +20389,12 @@
         <v>45327.76</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
@@ -20506,7 +20507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -20619,7 +20620,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -20732,7 +20733,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
@@ -20845,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
@@ -20958,7 +20959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>74</v>
       </c>
@@ -21184,7 +21185,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -21297,7 +21298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
@@ -21410,7 +21411,7 @@
         <v>854.74</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>76</v>
       </c>
@@ -21523,12 +21524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>34</v>
       </c>
@@ -21641,7 +21642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -21754,7 +21755,7 @@
         <v>56.93</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>72</v>
       </c>
@@ -21867,7 +21868,7 @@
         <v>652.92999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>73</v>
       </c>
@@ -21980,7 +21981,7 @@
         <v>5301.32</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
@@ -22093,7 +22094,7 @@
         <v>2307.87</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
@@ -22206,7 +22207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>74</v>
       </c>
@@ -22319,7 +22320,7 @@
         <v>440.88</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
@@ -22432,7 +22433,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
@@ -22545,7 +22546,7 @@
         <v>1612.02</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>76</v>
       </c>
@@ -22658,12 +22659,12 @@
         <v>1367.27</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>34</v>
       </c>
@@ -22776,7 +22777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>71</v>
       </c>
@@ -22889,7 +22890,7 @@
         <v>358.71</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>72</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>73</v>
       </c>
@@ -23115,7 +23116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>2</v>
       </c>
@@ -23228,7 +23229,7 @@
         <v>3315.96</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>3</v>
       </c>
@@ -23341,7 +23342,7 @@
         <v>5233.53</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>74</v>
       </c>
@@ -23454,7 +23455,7 @@
         <v>658.84</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>75</v>
       </c>
@@ -23567,7 +23568,7 @@
         <v>73.19</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>4</v>
       </c>
@@ -23680,7 +23681,7 @@
         <v>449.44</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>76</v>
       </c>
@@ -23793,12 +23794,12 @@
         <v>3993.65</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>34</v>
       </c>
@@ -23911,7 +23912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>71</v>
       </c>
@@ -24024,7 +24025,7 @@
         <v>253.55</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>72</v>
       </c>
@@ -24137,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>73</v>
       </c>
@@ -24250,7 +24251,7 @@
         <v>25.29</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -24363,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -24476,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>74</v>
       </c>
@@ -24589,7 +24590,7 @@
         <v>1891.94</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>75</v>
       </c>
@@ -24702,7 +24703,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>4</v>
       </c>
@@ -24815,7 +24816,7 @@
         <v>5364.22</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>76</v>
       </c>
@@ -24928,12 +24929,12 @@
         <v>221373.4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>34</v>
       </c>
@@ -25046,7 +25047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>71</v>
       </c>
@@ -25159,7 +25160,7 @@
         <v>4236.79</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>72</v>
       </c>
@@ -25272,7 +25273,7 @@
         <v>3998.82</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>73</v>
       </c>
@@ -25385,7 +25386,7 @@
         <v>29184.19</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>2</v>
       </c>
@@ -25498,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>3</v>
       </c>
@@ -25611,7 +25612,7 @@
         <v>71550.52</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>74</v>
       </c>
@@ -25724,7 +25725,7 @@
         <v>5992.89</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>75</v>
       </c>
@@ -25837,7 +25838,7 @@
         <v>9281.9</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>4</v>
       </c>
@@ -25950,7 +25951,7 @@
         <v>14183.61</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>76</v>
       </c>
@@ -26063,12 +26064,12 @@
         <v>42790.29</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>34</v>
       </c>
@@ -26181,7 +26182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>71</v>
       </c>
@@ -26294,7 +26295,7 @@
         <v>27.61</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>72</v>
       </c>
@@ -26407,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>73</v>
       </c>
@@ -26520,7 +26521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>2</v>
       </c>
@@ -26633,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
@@ -26746,7 +26747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>74</v>
       </c>
@@ -26859,7 +26860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>75</v>
       </c>
@@ -26972,7 +26973,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>4</v>
       </c>
@@ -27085,7 +27086,7 @@
         <v>1957.26</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>76</v>
       </c>
@@ -27198,12 +27199,12 @@
         <v>54336.22</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>34</v>
       </c>
@@ -27316,7 +27317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>71</v>
       </c>
@@ -27429,7 +27430,7 @@
         <v>32135.3</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>72</v>
       </c>
@@ -27542,7 +27543,7 @@
         <v>2224.23</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>73</v>
       </c>
@@ -27655,7 +27656,7 @@
         <v>63146.7</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>2</v>
       </c>
@@ -27768,7 +27769,7 @@
         <v>26967.66</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>3</v>
       </c>
@@ -27881,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>74</v>
       </c>
@@ -27994,7 +27995,7 @@
         <v>1695.7</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>75</v>
       </c>
@@ -28107,7 +28108,7 @@
         <v>349.59</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>4</v>
       </c>
@@ -28220,7 +28221,7 @@
         <v>6598.41</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>76</v>
       </c>
@@ -28333,12 +28334,12 @@
         <v>1371.45</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>34</v>
       </c>
@@ -28451,7 +28452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>71</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>588.67999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>72</v>
       </c>
@@ -28677,7 +28678,7 @@
         <v>179.14</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>73</v>
       </c>
@@ -28790,7 +28791,7 @@
         <v>2000.9</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>2</v>
       </c>
@@ -28903,7 +28904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>3</v>
       </c>
@@ -29016,7 +29017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>74</v>
       </c>
@@ -29129,7 +29130,7 @@
         <v>6515.9</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>75</v>
       </c>
@@ -29242,7 +29243,7 @@
         <v>36.619999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>4</v>
       </c>
@@ -29355,7 +29356,7 @@
         <v>1883.85</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>76</v>
       </c>
@@ -29468,12 +29469,12 @@
         <v>76290.259999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>34</v>
       </c>
@@ -29586,7 +29587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>71</v>
       </c>
@@ -29699,7 +29700,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>72</v>
       </c>
@@ -29812,7 +29813,7 @@
         <v>852.74</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>73</v>
       </c>
@@ -29925,7 +29926,7 @@
         <v>19728.91</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>2</v>
       </c>
@@ -30038,7 +30039,7 @@
         <v>4201.21</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>3</v>
       </c>
@@ -30151,7 +30152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>74</v>
       </c>
@@ -30264,7 +30265,7 @@
         <v>150.93</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>75</v>
       </c>
@@ -30377,7 +30378,7 @@
         <v>131.43</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>4</v>
       </c>
@@ -30490,7 +30491,7 @@
         <v>4051.42</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>76</v>
       </c>
@@ -30603,12 +30604,12 @@
         <v>4790.12</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>34</v>
       </c>
@@ -30721,7 +30722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>71</v>
       </c>
@@ -30834,7 +30835,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>72</v>
       </c>
@@ -30947,7 +30948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>73</v>
       </c>
@@ -31060,7 +31061,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>2</v>
       </c>
@@ -31173,7 +31174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>3</v>
       </c>
@@ -31286,7 +31287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>74</v>
       </c>
@@ -31399,7 +31400,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>75</v>
       </c>
@@ -31512,7 +31513,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>4</v>
       </c>
@@ -31625,7 +31626,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>76</v>
       </c>
@@ -31738,12 +31739,12 @@
         <v>386.41</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>34</v>
       </c>
@@ -31856,7 +31857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>71</v>
       </c>
@@ -31969,7 +31970,7 @@
         <v>627.85</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>72</v>
       </c>
@@ -32082,7 +32083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>73</v>
       </c>
@@ -32195,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>2</v>
       </c>
@@ -32308,7 +32309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>3</v>
       </c>
@@ -32421,7 +32422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>74</v>
       </c>
@@ -32534,7 +32535,7 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>75</v>
       </c>
@@ -32647,7 +32648,7 @@
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>4</v>
       </c>
@@ -32760,7 +32761,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>76</v>
       </c>
@@ -32873,12 +32874,12 @@
         <v>334.28</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>34</v>
       </c>
@@ -32991,7 +32992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>71</v>
       </c>
@@ -33104,7 +33105,7 @@
         <v>110.46</v>
       </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>72</v>
       </c>
@@ -33217,7 +33218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>73</v>
       </c>
@@ -33330,7 +33331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>2</v>
       </c>
@@ -33443,7 +33444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>3</v>
       </c>
@@ -33556,7 +33557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>74</v>
       </c>
@@ -33669,7 +33670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>75</v>
       </c>
@@ -33782,7 +33783,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>4</v>
       </c>
@@ -33895,7 +33896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>76</v>
       </c>
@@ -34030,25 +34031,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.36328125" customWidth="1"/>
-    <col min="3" max="5" width="21.6328125" customWidth="1"/>
+    <col min="1" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="5" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -34057,23 +34058,23 @@
         <v>6838.2918299999992</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>97</v>
       </c>
@@ -34096,7 +34097,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'CEF206 Elec Gen'!A9</f>
         <v>Oil/Gas Combustion Turbine</v>
@@ -34117,7 +34118,7 @@
         <v>3.4274130584427388E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'CEF206 Elec Gen'!A10</f>
         <v>Oil/Gas Steam Turbine</v>
@@ -34138,7 +34139,7 @@
         <v>1.5938564366055216E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>'CEF206 Elec Gen'!A11</f>
         <v>Oil/Gas Combined Cycle</v>
@@ -34162,7 +34163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>'CEF206 Elec Gen'!A12</f>
         <v>Coal</v>
@@ -34183,7 +34184,7 @@
         <v>0.10930801376727699</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>'CEF206 Elec Gen'!A13</f>
         <v>Nuclear</v>
@@ -34204,7 +34205,7 @@
         <v>0.14549862169926403</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>'CEF206 Elec Gen'!A14</f>
         <v>Biomass / Geothermal</v>
@@ -34228,7 +34229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'CEF206 Elec Gen'!A15</f>
         <v>Solar</v>
@@ -34252,7 +34253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>'CEF206 Elec Gen'!A16</f>
         <v>Wind</v>
@@ -34276,7 +34277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>'CEF206 Elec Gen'!A17</f>
         <v>Hydro / Wave / Tidal</v>
@@ -34297,13 +34298,13 @@
         <v>0.60237904251979513</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D18" s="17">
         <f>SUM(D9:D17)</f>
         <v>621515.30333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2005</v>
       </c>
@@ -34335,7 +34336,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>'CEF206 Elec Gen'!B11/('CEF206 Elec Capacity'!B11*8760)*1000</f>
         <v>0.54014842526324225</v>
@@ -34383,23 +34384,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:AJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -34506,7 +34507,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -34515,11 +34516,11 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="C2" s="6">
-        <f>$B2</f>
+        <f>B2</f>
         <v>0.58199999999999996</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
+        <f t="shared" ref="D2:AJ10" si="0">C2</f>
         <v>0.58199999999999996</v>
       </c>
       <c r="E2" s="6">
@@ -34651,7 +34652,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -34660,7 +34661,7 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <f t="shared" ref="C3:R14" si="1">B3</f>
         <v>0.38300000000000001</v>
       </c>
       <c r="D3" s="6">
@@ -34796,7 +34797,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -34941,7 +34942,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -35086,7 +35087,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -35231,7 +35232,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -35376,7 +35377,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -35521,7 +35522,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -35666,7 +35667,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -35703,7 +35704,7 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" ref="D10:AJ14" si="2">$B10</f>
+        <f t="shared" ref="D10:AJ14" si="2">I10</f>
         <v>0.53300000000000003</v>
       </c>
       <c r="K10" s="6">
@@ -35811,7 +35812,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -35956,7 +35957,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -36101,7 +36102,7 @@
         <v>0.27053005934650753</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -36110,7 +36111,7 @@
         <v>0.27053005934650753</v>
       </c>
       <c r="C13" s="6">
-        <f>$B13</f>
+        <f t="shared" si="1"/>
         <v>0.27053005934650753</v>
       </c>
       <c r="D13" s="6">
@@ -36246,7 +36247,7 @@
         <v>0.27053005934650753</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -36255,7 +36256,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="C14" s="6">
-        <f>$B14</f>
+        <f t="shared" si="1"/>
         <v>0.19900000000000001</v>
       </c>
       <c r="D14" s="6">
@@ -36397,7 +36398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -36407,13 +36408,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -36520,7 +36521,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -36664,7 +36665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -36808,7 +36809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -36952,7 +36953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -37096,7 +37097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -37240,7 +37241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37384,7 +37385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -37528,7 +37529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -37672,7 +37673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -37816,7 +37817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -37960,7 +37961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -38104,7 +38105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -38248,7 +38249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -38398,23 +38399,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -38521,7 +38522,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -38530,11 +38531,11 @@
         <v>0.64019999999999999</v>
       </c>
       <c r="C2" s="6">
-        <f>$B2</f>
+        <f>B2</f>
         <v>0.64019999999999999</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
+        <f t="shared" ref="D2:AJ10" si="0">C2</f>
         <v>0.64019999999999999</v>
       </c>
       <c r="E2" s="6">
@@ -38666,7 +38667,7 @@
         <v>0.64019999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -38675,7 +38676,7 @@
         <v>0.42130000000000006</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <f t="shared" ref="C3:R14" si="1">B3</f>
         <v>0.42130000000000006</v>
       </c>
       <c r="D3" s="6">
@@ -38811,7 +38812,7 @@
         <v>0.42130000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -38956,7 +38957,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -39101,7 +39102,7 @@
         <v>0.61160000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -39246,7 +39247,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39391,7 +39392,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -39536,7 +39537,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -39681,7 +39682,7 @@
         <v>0.58630000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -39718,7 +39719,7 @@
         <v>0.875</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" ref="D10:AJ14" si="2">$B10</f>
+        <f t="shared" ref="D10:AJ14" si="2">I10</f>
         <v>0.875</v>
       </c>
       <c r="K10" s="6">
@@ -39826,7 +39827,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -39971,7 +39972,7 @@
         <v>0.35310000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -40116,16 +40117,16 @@
         <v>0.2975830652811583</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B13" s="6">
         <f>'BECF-pre-ret'!B13*1.1</f>
         <v>0.2975830652811583</v>
       </c>
       <c r="C13" s="6">
-        <f>$B13</f>
+        <f t="shared" si="1"/>
         <v>0.2975830652811583</v>
       </c>
       <c r="D13" s="6">
@@ -40261,7 +40262,7 @@
         <v>0.2975830652811583</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -40270,7 +40271,7 @@
         <v>0.45</v>
       </c>
       <c r="C14" s="6">
-        <f>$B14</f>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
       <c r="D14" s="6">

--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA6CE7-8692-4F3D-B8CB-42C7E0D47643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E1896-05D7-4162-A380-505FDDA63F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3593,7 +3593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -41018,8 +41018,8 @@
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:AG17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41217,7 +41217,7 @@
         <v>0.64</v>
       </c>
       <c r="D2" s="28">
-        <f t="shared" ref="D2:AJ10" si="1">C2</f>
+        <f t="shared" ref="D2:AJ9" si="1">C2</f>
         <v>0.64</v>
       </c>
       <c r="E2" s="28">
@@ -41359,7 +41359,7 @@
         <v>0.13560000000000003</v>
       </c>
       <c r="C3" s="28">
-        <f t="shared" ref="C3:R14" si="2">B3</f>
+        <f t="shared" ref="C3:R12" si="2">B3</f>
         <v>0.13560000000000003</v>
       </c>
       <c r="D3" s="28">
@@ -42751,112 +42751,109 @@
         <v>lignite</v>
       </c>
       <c r="B13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="E13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="F13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="G13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="H13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="I13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="J13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="K13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="L13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="M13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="N13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="O13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="P13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="Q13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="R13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="S13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="T13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="U13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="V13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="W13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="X13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="Y13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="Z13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AA13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AB13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AC13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AD13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AE13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AF13">
-        <v>0.376</v>
+        <v>1E-3</v>
       </c>
       <c r="AG13">
-        <v>0.376</v>
-      </c>
-      <c r="AH13" s="28">
-        <f t="shared" si="3"/>
-        <v>0.376</v>
-      </c>
-      <c r="AI13" s="28">
-        <f t="shared" si="3"/>
-        <v>0.376</v>
-      </c>
-      <c r="AJ13" s="28">
-        <f t="shared" si="3"/>
-        <v>0.376</v>
+        <v>1E-3</v>
+      </c>
+      <c r="AH13">
+        <v>1E-3</v>
+      </c>
+      <c r="AI13">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ13">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -45727,7 +45724,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47524,143 +47521,143 @@
       </c>
       <c r="B13" s="28">
         <f>'BECF-pre-ret'!B13*About!B$36</f>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C13" s="28">
         <f t="shared" si="2"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="I13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="L13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="P13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="Q13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="R13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="T13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="U13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="V13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="X13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="Y13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="Z13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AA13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AC13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AE13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AH13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AI13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="AJ13" s="28">
         <f t="shared" si="3"/>
-        <v>0.41360000000000002</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -48253,32 +48250,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -48524,25 +48495,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE083A-8560-4254-BAB6-CA854611691B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86209414-7AAC-4756-A165-17A53274AF22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEF58C0D-2D7D-46C7-93E5-4B8A971FE8DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48560,4 +48539,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86209414-7AAC-4756-A165-17A53274AF22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE083A-8560-4254-BAB6-CA854611691B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E1896-05D7-4162-A380-505FDDA63F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0120AB-9B3E-49ED-99A5-9C2A9C219B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="168">
   <si>
     <t>BAU Expected Capacity Factors</t>
   </si>
@@ -585,9 +585,6 @@
   <si>
     <t>I believe all Canada's coal plants are sub-bituminous, NON-lignit plants</t>
   </si>
-  <si>
-    <t>US values as placeholder for other fuel types</t>
-  </si>
 </sst>
 </file>
 
@@ -827,10 +824,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3591,24 +3588,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="82.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3616,94 +3613,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3711,59 +3708,59 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:2" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -3771,37 +3768,37 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
@@ -3809,12 +3806,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -3822,13 +3819,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="34"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3836,17 +3833,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>40</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3871,32 +3863,32 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -3904,12 +3896,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -4052,7 +4044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>96</v>
       </c>
@@ -4195,7 +4187,7 @@
         <v>86866.7</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>97</v>
       </c>
@@ -4338,7 +4330,7 @@
         <v>27738.58</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>98</v>
       </c>
@@ -4481,7 +4473,7 @@
         <v>2753.55</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>99</v>
       </c>
@@ -4624,7 +4616,7 @@
         <v>11460.69</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
@@ -4767,7 +4759,7 @@
         <v>11579</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>101</v>
       </c>
@@ -4910,7 +4902,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>102</v>
       </c>
@@ -5053,7 +5045,7 @@
         <v>33341.89</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>103</v>
       </c>
@@ -5196,12 +5188,12 @@
         <v>2008.79</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -5344,7 +5336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
@@ -5487,7 +5479,7 @@
         <v>7617.68</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
@@ -5630,7 +5622,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>98</v>
       </c>
@@ -5773,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>99</v>
       </c>
@@ -5916,7 +5908,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>100</v>
       </c>
@@ -6059,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>101</v>
       </c>
@@ -6202,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>102</v>
       </c>
@@ -6345,7 +6337,7 @@
         <v>311.5</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>103</v>
       </c>
@@ -6488,12 +6480,12 @@
         <v>232.84</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
@@ -6636,7 +6628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>96</v>
       </c>
@@ -6779,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>97</v>
       </c>
@@ -6922,7 +6914,7 @@
         <v>377.95</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>98</v>
       </c>
@@ -7065,7 +7057,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>99</v>
       </c>
@@ -7208,7 +7200,7 @@
         <v>86.17</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>100</v>
       </c>
@@ -7351,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>101</v>
       </c>
@@ -7494,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>102</v>
       </c>
@@ -7637,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>103</v>
       </c>
@@ -7780,12 +7772,12 @@
         <v>170.45</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
@@ -7928,7 +7920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -8071,7 +8063,7 @@
         <v>511.81</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>97</v>
       </c>
@@ -8214,7 +8206,7 @@
         <v>1138.45</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>98</v>
       </c>
@@ -8357,7 +8349,7 @@
         <v>116.66</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>99</v>
       </c>
@@ -8500,7 +8492,7 @@
         <v>230.37</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>100</v>
       </c>
@@ -8643,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>101</v>
       </c>
@@ -8786,7 +8778,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>102</v>
       </c>
@@ -8929,7 +8921,7 @@
         <v>703.01</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>103</v>
       </c>
@@ -9072,12 +9064,12 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>49</v>
       </c>
@@ -9220,7 +9212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -9363,7 +9355,7 @@
         <v>1054.1300000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>97</v>
       </c>
@@ -9506,7 +9498,7 @@
         <v>801.03</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>98</v>
       </c>
@@ -9649,7 +9641,7 @@
         <v>133.44999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>99</v>
       </c>
@@ -9792,7 +9784,7 @@
         <v>86.16</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>100</v>
       </c>
@@ -9935,7 +9927,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>101</v>
       </c>
@@ -10078,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>102</v>
       </c>
@@ -10221,7 +10213,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>103</v>
       </c>
@@ -10364,12 +10356,12 @@
         <v>514.34</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
         <v>49</v>
       </c>
@@ -10512,7 +10504,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
         <v>96</v>
       </c>
@@ -10655,7 +10647,7 @@
         <v>42016.15</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>97</v>
       </c>
@@ -10798,7 +10790,7 @@
         <v>7314.48</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>98</v>
       </c>
@@ -10941,7 +10933,7 @@
         <v>558.04999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>99</v>
       </c>
@@ -11084,7 +11076,7 @@
         <v>530.83000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>100</v>
       </c>
@@ -11227,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>101</v>
       </c>
@@ -11370,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
         <v>102</v>
       </c>
@@ -11513,7 +11505,7 @@
         <v>649.16999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>103</v>
       </c>
@@ -11656,12 +11648,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
         <v>49</v>
       </c>
@@ -11804,7 +11796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>96</v>
       </c>
@@ -11947,7 +11939,7 @@
         <v>9766.9500000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>97</v>
       </c>
@@ -12090,7 +12082,7 @@
         <v>6686.45</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>98</v>
       </c>
@@ -12233,7 +12225,7 @@
         <v>492.7</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
         <v>99</v>
       </c>
@@ -12376,7 +12368,7 @@
         <v>4869.46</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
         <v>100</v>
       </c>
@@ -12519,7 +12511,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
         <v>101</v>
       </c>
@@ -12662,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>102</v>
       </c>
@@ -12805,7 +12797,7 @@
         <v>10903.63</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>103</v>
       </c>
@@ -12948,12 +12940,12 @@
         <v>250.45</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
         <v>49</v>
       </c>
@@ -13096,7 +13088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
         <v>96</v>
       </c>
@@ -13239,7 +13231,7 @@
         <v>6159.74</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>97</v>
       </c>
@@ -13382,7 +13374,7 @@
         <v>1222.92</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>98</v>
       </c>
@@ -13525,7 +13517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="s">
         <v>99</v>
       </c>
@@ -13668,7 +13660,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
         <v>100</v>
       </c>
@@ -13811,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="s">
         <v>101</v>
       </c>
@@ -13954,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
         <v>102</v>
       </c>
@@ -14097,7 +14089,7 @@
         <v>402.61</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="s">
         <v>103</v>
       </c>
@@ -14240,12 +14232,12 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="s">
         <v>49</v>
       </c>
@@ -14388,7 +14380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="s">
         <v>96</v>
       </c>
@@ -14531,7 +14523,7 @@
         <v>894.35</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A98" s="14" t="s">
         <v>97</v>
       </c>
@@ -14674,7 +14666,7 @@
         <v>5556.76</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="s">
         <v>98</v>
       </c>
@@ -14817,7 +14809,7 @@
         <v>451.61</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="s">
         <v>99</v>
       </c>
@@ -14960,7 +14952,7 @@
         <v>2336.4699999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="14" t="s">
         <v>100</v>
       </c>
@@ -15103,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="s">
         <v>101</v>
       </c>
@@ -15246,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="s">
         <v>102</v>
       </c>
@@ -15389,7 +15381,7 @@
         <v>17214.169999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="14" t="s">
         <v>103</v>
       </c>
@@ -15532,12 +15524,12 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="s">
         <v>49</v>
       </c>
@@ -15680,7 +15672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="s">
         <v>96</v>
       </c>
@@ -15823,7 +15815,7 @@
         <v>17594.21</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
         <v>97</v>
       </c>
@@ -15966,7 +15958,7 @@
         <v>1902.25</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A110" s="14" t="s">
         <v>98</v>
       </c>
@@ -16109,7 +16101,7 @@
         <v>927.79</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>99</v>
       </c>
@@ -16252,7 +16244,7 @@
         <v>2509.44</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="s">
         <v>100</v>
       </c>
@@ -16395,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="s">
         <v>101</v>
       </c>
@@ -16538,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="s">
         <v>102</v>
       </c>
@@ -16681,7 +16673,7 @@
         <v>630.33000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>103</v>
       </c>
@@ -16824,12 +16816,12 @@
         <v>122.46</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
         <v>49</v>
       </c>
@@ -16972,7 +16964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="s">
         <v>96</v>
       </c>
@@ -17115,7 +17107,7 @@
         <v>981.7</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
         <v>97</v>
       </c>
@@ -17258,7 +17250,7 @@
         <v>2655.08</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="s">
         <v>98</v>
       </c>
@@ -17401,7 +17393,7 @@
         <v>47.39</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="s">
         <v>99</v>
       </c>
@@ -17544,7 +17536,7 @@
         <v>674.98</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>100</v>
       </c>
@@ -17687,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
         <v>101</v>
       </c>
@@ -17830,7 +17822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
         <v>102</v>
       </c>
@@ -17973,7 +17965,7 @@
         <v>2470.42</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
         <v>103</v>
       </c>
@@ -18116,12 +18108,12 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A128" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="s">
         <v>49</v>
       </c>
@@ -18264,7 +18256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="s">
         <v>96</v>
       </c>
@@ -18407,7 +18399,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
         <v>97</v>
       </c>
@@ -18550,7 +18542,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="s">
         <v>98</v>
       </c>
@@ -18693,7 +18685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="s">
         <v>99</v>
       </c>
@@ -18836,7 +18828,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="s">
         <v>100</v>
       </c>
@@ -18979,7 +18971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="s">
         <v>101</v>
       </c>
@@ -19122,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A136" s="14" t="s">
         <v>102</v>
       </c>
@@ -19265,7 +19257,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A137" s="14" t="s">
         <v>103</v>
       </c>
@@ -19408,12 +19400,12 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="s">
         <v>49</v>
       </c>
@@ -19556,7 +19548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="s">
         <v>96</v>
       </c>
@@ -19699,7 +19691,7 @@
         <v>115.48</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A142" s="14" t="s">
         <v>97</v>
       </c>
@@ -19842,7 +19834,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A143" s="14" t="s">
         <v>98</v>
       </c>
@@ -19985,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A144" s="14" t="s">
         <v>99</v>
       </c>
@@ -20128,7 +20120,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="14" t="s">
         <v>100</v>
       </c>
@@ -20271,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="14" t="s">
         <v>101</v>
       </c>
@@ -20414,7 +20406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="14" t="s">
         <v>102</v>
       </c>
@@ -20557,7 +20549,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A148" s="14" t="s">
         <v>103</v>
       </c>
@@ -20700,12 +20692,12 @@
         <v>129.06</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A150" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="s">
         <v>49</v>
       </c>
@@ -20848,7 +20840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A152" s="14" t="s">
         <v>96</v>
       </c>
@@ -20991,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A153" s="14" t="s">
         <v>97</v>
       </c>
@@ -21134,7 +21126,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A154" s="14" t="s">
         <v>98</v>
       </c>
@@ -21277,7 +21269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A155" s="14" t="s">
         <v>99</v>
       </c>
@@ -21420,7 +21412,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="s">
         <v>100</v>
       </c>
@@ -21563,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A157" s="14" t="s">
         <v>101</v>
       </c>
@@ -21706,7 +21698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A158" s="14" t="s">
         <v>102</v>
       </c>
@@ -21849,7 +21841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A159" s="14" t="s">
         <v>103</v>
       </c>
@@ -22022,35 +22014,35 @@
       <selection activeCell="L9" sqref="L9:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="8.85546875" style="14"/>
-    <col min="12" max="15" width="9.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="11" width="8.81640625" style="14"/>
+    <col min="12" max="15" width="9.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -22058,12 +22050,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -22206,7 +22198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>96</v>
       </c>
@@ -22349,7 +22341,7 @@
         <v>423424.3</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>97</v>
       </c>
@@ -22492,7 +22484,7 @@
         <v>113811.4</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>98</v>
       </c>
@@ -22635,7 +22627,7 @@
         <v>9335.09</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>99</v>
       </c>
@@ -22778,7 +22770,7 @@
         <v>16735.41</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
@@ -22921,7 +22913,7 @@
         <v>89379.16</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>101</v>
       </c>
@@ -23064,7 +23056,7 @@
         <v>1719.47</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>102</v>
       </c>
@@ -23207,7 +23199,7 @@
         <v>119782.7</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>103</v>
       </c>
@@ -23350,7 +23342,7 @@
         <v>3798.51</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -23414,12 +23406,12 @@
       <c r="AT17" s="20"/>
       <c r="AU17" s="20"/>
     </row>
-    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
@@ -23562,7 +23554,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
@@ -23705,7 +23697,7 @@
         <v>46935.91</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
@@ -23848,7 +23840,7 @@
         <v>199.94</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>98</v>
       </c>
@@ -23991,7 +23983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>99</v>
       </c>
@@ -24134,7 +24126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>100</v>
       </c>
@@ -24277,7 +24269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>101</v>
       </c>
@@ -24420,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>102</v>
       </c>
@@ -24563,7 +24555,7 @@
         <v>431.07</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>103</v>
       </c>
@@ -24706,12 +24698,12 @@
         <v>312.82</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
@@ -24854,7 +24846,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>96</v>
       </c>
@@ -24997,7 +24989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>97</v>
       </c>
@@ -25140,7 +25132,7 @@
         <v>1875.48</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>98</v>
       </c>
@@ -25283,7 +25275,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>99</v>
       </c>
@@ -25426,7 +25418,7 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>100</v>
       </c>
@@ -25569,7 +25561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>101</v>
       </c>
@@ -25712,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>102</v>
       </c>
@@ -25855,7 +25847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>103</v>
       </c>
@@ -25998,12 +25990,12 @@
         <v>237.14</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
@@ -26146,7 +26138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -26289,7 +26281,7 @@
         <v>1535.53</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>97</v>
       </c>
@@ -26432,7 +26424,7 @@
         <v>3759.08</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>98</v>
       </c>
@@ -26575,7 +26567,7 @@
         <v>216.03</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>99</v>
       </c>
@@ -26718,7 +26710,7 @@
         <v>417.06</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>100</v>
       </c>
@@ -26861,7 +26853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>101</v>
       </c>
@@ -27004,7 +26996,7 @@
         <v>1333.13</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>102</v>
       </c>
@@ -27147,7 +27139,7 @@
         <v>2534.27</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>103</v>
       </c>
@@ -27290,12 +27282,12 @@
         <v>232.14</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>49</v>
       </c>
@@ -27438,7 +27430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -27581,7 +27573,7 @@
         <v>3361.23</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>97</v>
       </c>
@@ -27724,7 +27716,7 @@
         <v>2936.62</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>98</v>
       </c>
@@ -27867,7 +27859,7 @@
         <v>540.04999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>99</v>
       </c>
@@ -28010,7 +28002,7 @@
         <v>154.11000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>100</v>
       </c>
@@ -28153,7 +28145,7 @@
         <v>5353.25</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>101</v>
       </c>
@@ -28296,7 +28288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>102</v>
       </c>
@@ -28439,7 +28431,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>103</v>
       </c>
@@ -28582,12 +28574,12 @@
         <v>954.68</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
         <v>49</v>
       </c>
@@ -28730,7 +28722,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
         <v>96</v>
       </c>
@@ -28873,7 +28865,7 @@
         <v>205340.3</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>97</v>
       </c>
@@ -29016,7 +29008,7 @@
         <v>23671.96</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>98</v>
       </c>
@@ -29159,7 +29151,7 @@
         <v>2346.4899999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>99</v>
       </c>
@@ -29302,7 +29294,7 @@
         <v>962.28</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>100</v>
       </c>
@@ -29445,7 +29437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>101</v>
       </c>
@@ -29588,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
         <v>102</v>
       </c>
@@ -29731,7 +29723,7 @@
         <v>163.61000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>103</v>
       </c>
@@ -29874,12 +29866,12 @@
         <v>393.06</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
         <v>49</v>
       </c>
@@ -30022,7 +30014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>96</v>
       </c>
@@ -30165,7 +30157,7 @@
         <v>38597.47</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>97</v>
       </c>
@@ -30308,7 +30300,7 @@
         <v>22762.29</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>98</v>
       </c>
@@ -30451,7 +30443,7 @@
         <v>781.88</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
         <v>99</v>
       </c>
@@ -30594,7 +30586,7 @@
         <v>6157.31</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
         <v>100</v>
       </c>
@@ -30737,7 +30729,7 @@
         <v>84025.91</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
         <v>101</v>
       </c>
@@ -30880,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>102</v>
       </c>
@@ -31023,7 +31015,7 @@
         <v>33666.79</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>103</v>
       </c>
@@ -31166,12 +31158,12 @@
         <v>1110.31</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
         <v>49</v>
       </c>
@@ -31314,7 +31306,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
         <v>96</v>
       </c>
@@ -31457,7 +31449,7 @@
         <v>33370.89</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>97</v>
       </c>
@@ -31600,7 +31592,7 @@
         <v>4397.57</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>98</v>
       </c>
@@ -31743,7 +31735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="s">
         <v>99</v>
       </c>
@@ -31886,7 +31878,7 @@
         <v>204.72</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
         <v>100</v>
       </c>
@@ -32029,7 +32021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="s">
         <v>101</v>
       </c>
@@ -32172,7 +32164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
         <v>102</v>
       </c>
@@ -32315,7 +32307,7 @@
         <v>699.13</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="s">
         <v>103</v>
       </c>
@@ -32458,12 +32450,12 @@
         <v>33.81</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="s">
         <v>49</v>
       </c>
@@ -32606,7 +32598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="s">
         <v>96</v>
       </c>
@@ -32749,7 +32741,7 @@
         <v>1634.95</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A98" s="14" t="s">
         <v>97</v>
       </c>
@@ -32892,7 +32884,7 @@
         <v>38254.83</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="s">
         <v>98</v>
       </c>
@@ -33035,7 +33027,7 @@
         <v>1878.64</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="s">
         <v>99</v>
       </c>
@@ -33178,7 +33170,7 @@
         <v>3278.44</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="14" t="s">
         <v>100</v>
       </c>
@@ -33321,7 +33313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="s">
         <v>101</v>
       </c>
@@ -33464,7 +33456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="s">
         <v>102</v>
       </c>
@@ -33607,7 +33599,7 @@
         <v>65045.67</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="14" t="s">
         <v>103</v>
       </c>
@@ -33750,12 +33742,12 @@
         <v>52.42</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="s">
         <v>49</v>
       </c>
@@ -33898,7 +33890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="s">
         <v>96</v>
       </c>
@@ -34041,7 +34033,7 @@
         <v>88123.5</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
         <v>97</v>
       </c>
@@ -34184,7 +34176,7 @@
         <v>6546.04</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A110" s="14" t="s">
         <v>98</v>
       </c>
@@ -34327,7 +34319,7 @@
         <v>3275.15</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>99</v>
       </c>
@@ -34470,7 +34462,7 @@
         <v>4265.51</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="s">
         <v>100</v>
       </c>
@@ -34613,7 +34605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="s">
         <v>101</v>
       </c>
@@ -34756,7 +34748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="s">
         <v>102</v>
       </c>
@@ -34899,7 +34891,7 @@
         <v>2260.06</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>103</v>
       </c>
@@ -35042,12 +35034,12 @@
         <v>131.18</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
         <v>49</v>
       </c>
@@ -35190,7 +35182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="s">
         <v>96</v>
       </c>
@@ -35333,7 +35325,7 @@
         <v>3834.1</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
         <v>97</v>
       </c>
@@ -35476,7 +35468,7 @@
         <v>9303.3799999999992</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="s">
         <v>98</v>
       </c>
@@ -35619,7 +35611,7 @@
         <v>204.51</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="s">
         <v>99</v>
       </c>
@@ -35762,7 +35754,7 @@
         <v>1112.04</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>100</v>
       </c>
@@ -35905,7 +35897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
         <v>101</v>
       </c>
@@ -36048,7 +36040,7 @@
         <v>386.34</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
         <v>102</v>
       </c>
@@ -36191,7 +36183,7 @@
         <v>14898.9</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
         <v>103</v>
       </c>
@@ -36334,12 +36326,12 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A128" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="s">
         <v>49</v>
       </c>
@@ -36482,7 +36474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="s">
         <v>96</v>
       </c>
@@ -36625,7 +36617,7 @@
         <v>406.35</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
         <v>97</v>
       </c>
@@ -36768,7 +36760,7 @@
         <v>60.52</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="s">
         <v>98</v>
       </c>
@@ -36911,7 +36903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="s">
         <v>99</v>
       </c>
@@ -37054,7 +37046,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="s">
         <v>100</v>
       </c>
@@ -37197,7 +37189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="s">
         <v>101</v>
       </c>
@@ -37340,7 +37332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A136" s="14" t="s">
         <v>102</v>
       </c>
@@ -37483,7 +37475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A137" s="14" t="s">
         <v>103</v>
       </c>
@@ -37626,12 +37618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="s">
         <v>49</v>
       </c>
@@ -37774,7 +37766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="s">
         <v>96</v>
       </c>
@@ -37917,7 +37909,7 @@
         <v>284.10000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A142" s="14" t="s">
         <v>97</v>
       </c>
@@ -38060,7 +38052,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A143" s="14" t="s">
         <v>98</v>
       </c>
@@ -38203,7 +38195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A144" s="14" t="s">
         <v>99</v>
       </c>
@@ -38346,7 +38338,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="14" t="s">
         <v>100</v>
       </c>
@@ -38489,7 +38481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="14" t="s">
         <v>101</v>
       </c>
@@ -38632,7 +38624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="14" t="s">
         <v>102</v>
       </c>
@@ -38775,7 +38767,7 @@
         <v>83.14</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A148" s="14" t="s">
         <v>103</v>
       </c>
@@ -38918,12 +38910,12 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A150" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="s">
         <v>49</v>
       </c>
@@ -39066,7 +39058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A152" s="14" t="s">
         <v>96</v>
       </c>
@@ -39209,7 +39201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A153" s="14" t="s">
         <v>97</v>
       </c>
@@ -39352,7 +39344,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A154" s="14" t="s">
         <v>98</v>
       </c>
@@ -39495,7 +39487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A155" s="14" t="s">
         <v>99</v>
       </c>
@@ -39638,7 +39630,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="s">
         <v>100</v>
       </c>
@@ -39781,7 +39773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A157" s="14" t="s">
         <v>101</v>
       </c>
@@ -39924,7 +39916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A158" s="14" t="s">
         <v>102</v>
       </c>
@@ -40067,7 +40059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A159" s="14" t="s">
         <v>103</v>
       </c>
@@ -40240,17 +40232,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="10.85546875" style="26"/>
+    <col min="2" max="3" width="10.81640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
         <v>118</v>
       </c>
@@ -40261,7 +40253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -40276,7 +40268,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -40291,7 +40283,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -40306,7 +40298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -40321,7 +40313,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -40336,7 +40328,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -40354,7 +40346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -40369,7 +40361,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -40384,7 +40376,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -40399,7 +40391,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -40414,7 +40406,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -40429,7 +40421,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -40444,7 +40436,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -40475,23 +40467,23 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="5" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="5" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>136</v>
       </c>
@@ -40517,7 +40509,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>101</v>
       </c>
@@ -40540,7 +40532,7 @@
         <v>0.10930801376727699</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -40561,7 +40553,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>100</v>
       </c>
@@ -40584,7 +40576,7 @@
         <v>0.14549862169926403</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>96</v>
       </c>
@@ -40607,7 +40599,7 @@
         <v>0.60237904251979513</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>97</v>
       </c>
@@ -40630,7 +40622,7 @@
         <v>1.8846170432992984E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>99</v>
       </c>
@@ -40653,7 +40645,7 @@
         <v>2.5289830487467049E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>129</v>
       </c>
@@ -40662,7 +40654,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>98</v>
       </c>
@@ -40688,7 +40680,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>131</v>
       </c>
@@ -40697,7 +40689,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>103</v>
       </c>
@@ -40718,7 +40710,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>102</v>
       </c>
@@ -40742,32 +40734,32 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C19" s="21" t="s">
         <v>148</v>
       </c>
@@ -40781,17 +40773,17 @@
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C20" s="21"/>
       <c r="D20" s="11"/>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C21" s="21"/>
       <c r="D21" s="11"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -40805,7 +40797,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -40833,7 +40825,7 @@
         <v>3.2995265173060395E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>155</v>
       </c>
@@ -40862,7 +40854,7 @@
       </c>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -40884,7 +40876,7 @@
       </c>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E26" s="30">
         <f>SUM(E23:E25)</f>
         <v>0.10652735818127426</v>
@@ -40894,7 +40886,7 @@
         <v>0.10954657896740368</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="23">
         <v>2005</v>
@@ -40927,7 +40919,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>161</v>
       </c>
@@ -40972,22 +40964,22 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>165</v>
       </c>
@@ -40995,12 +40987,12 @@
         <v>6838.2918299999992</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -41019,49 +41011,49 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" style="27" customWidth="1"/>
     <col min="5" max="5" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="27"/>
+    <col min="36" max="36" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="28">
         <f>About!B24</f>
         <v>2019</v>
@@ -41203,8 +41195,8 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="str">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B3</f>
         <v>hard coal</v>
       </c>
@@ -41217,7 +41209,7 @@
         <v>0.64</v>
       </c>
       <c r="D2" s="28">
-        <f t="shared" ref="D2:AJ9" si="1">C2</f>
+        <f t="shared" ref="D2:AJ10" si="1">C2</f>
         <v>0.64</v>
       </c>
       <c r="E2" s="28">
@@ -41349,8 +41341,8 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="str">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B4</f>
         <v>natural gas nonpeaker</v>
       </c>
@@ -41359,7 +41351,7 @@
         <v>0.13560000000000003</v>
       </c>
       <c r="C3" s="28">
-        <f t="shared" ref="C3:R12" si="2">B3</f>
+        <f t="shared" ref="C3:R14" si="2">B3</f>
         <v>0.13560000000000003</v>
       </c>
       <c r="D3" s="28">
@@ -41495,8 +41487,8 @@
         <v>0.13560000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="str">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B5</f>
         <v>nuclear</v>
       </c>
@@ -41641,8 +41633,8 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="str">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B6</f>
         <v>hydro</v>
       </c>
@@ -41787,8 +41779,8 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="str">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B7</f>
         <v>onshore wind</v>
       </c>
@@ -41933,8 +41925,8 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="str">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B8</f>
         <v>solar PV</v>
       </c>
@@ -42079,122 +42071,153 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="str">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B9</f>
         <v>solar thermal</v>
       </c>
-      <c r="B8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="P8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="R8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="S8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="T8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="U8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="V8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="W8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="X8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="Y8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="Z8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AB8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AD8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AE8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AF8">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AG8">
-        <v>0.21199999999999999</v>
+      <c r="B8" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="28">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="O8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="U8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="V8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="W8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="AH8" s="28">
         <f t="shared" si="1"/>
-        <v>0.21199999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AI8" s="28">
         <f t="shared" si="1"/>
-        <v>0.21199999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AJ8" s="28">
         <f t="shared" si="1"/>
-        <v>0.21199999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="str">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B10</f>
         <v>biomass</v>
       </c>
@@ -42339,122 +42362,153 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="str">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B11</f>
         <v>geothermal</v>
       </c>
-      <c r="B10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="C10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="D10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="E10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="F10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="H10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="I10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="J10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="K10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="L10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="M10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="N10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="O10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="P10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="Q10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="R10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="S10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="T10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="U10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="V10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="W10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="X10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="Y10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="Z10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AA10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AB10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AC10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AD10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AE10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AF10">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="AG10">
-        <v>0.69599999999999995</v>
+      <c r="B10" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="28">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" ref="D10:AJ17" si="3">I10</f>
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="U10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="X10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AH10" s="28">
-        <f t="shared" ref="D10:AJ14" si="3">AG10</f>
-        <v>0.69599999999999995</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AI10" s="28">
         <f t="shared" si="3"/>
-        <v>0.69599999999999995</v>
+        <v>0.01</v>
       </c>
       <c r="AJ10" s="28">
         <f t="shared" si="3"/>
-        <v>0.69599999999999995</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="str">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B12</f>
         <v>petroleum</v>
       </c>
@@ -42599,8 +42653,8 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="str">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B13</f>
         <v>natural gas peaker</v>
       </c>
@@ -42745,571 +42799,729 @@
         <v>0.2034</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="str">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B14</f>
         <v>lignite</v>
       </c>
-      <c r="B13">
-        <v>1E-3</v>
-      </c>
-      <c r="C13">
-        <v>1E-3</v>
-      </c>
-      <c r="D13">
-        <v>1E-3</v>
-      </c>
-      <c r="E13">
-        <v>1E-3</v>
-      </c>
-      <c r="F13">
-        <v>1E-3</v>
-      </c>
-      <c r="G13">
-        <v>1E-3</v>
-      </c>
-      <c r="H13">
-        <v>1E-3</v>
-      </c>
-      <c r="I13">
-        <v>1E-3</v>
-      </c>
-      <c r="J13">
-        <v>1E-3</v>
-      </c>
-      <c r="K13">
-        <v>1E-3</v>
-      </c>
-      <c r="L13">
-        <v>1E-3</v>
-      </c>
-      <c r="M13">
-        <v>1E-3</v>
-      </c>
-      <c r="N13">
-        <v>1E-3</v>
-      </c>
-      <c r="O13">
-        <v>1E-3</v>
-      </c>
-      <c r="P13">
-        <v>1E-3</v>
-      </c>
-      <c r="Q13">
-        <v>1E-3</v>
-      </c>
-      <c r="R13">
-        <v>1E-3</v>
-      </c>
-      <c r="S13">
-        <v>1E-3</v>
-      </c>
-      <c r="T13">
-        <v>1E-3</v>
-      </c>
-      <c r="U13">
-        <v>1E-3</v>
-      </c>
-      <c r="V13">
-        <v>1E-3</v>
-      </c>
-      <c r="W13">
-        <v>1E-3</v>
-      </c>
-      <c r="X13">
-        <v>1E-3</v>
-      </c>
-      <c r="Y13">
-        <v>1E-3</v>
-      </c>
-      <c r="Z13">
-        <v>1E-3</v>
-      </c>
-      <c r="AA13">
-        <v>1E-3</v>
-      </c>
-      <c r="AB13">
-        <v>1E-3</v>
-      </c>
-      <c r="AC13">
-        <v>1E-3</v>
-      </c>
-      <c r="AD13">
-        <v>1E-3</v>
-      </c>
-      <c r="AE13">
-        <v>1E-3</v>
-      </c>
-      <c r="AF13">
-        <v>1E-3</v>
-      </c>
-      <c r="AG13">
-        <v>1E-3</v>
-      </c>
-      <c r="AH13">
-        <v>1E-3</v>
-      </c>
-      <c r="AI13">
-        <v>1E-3</v>
-      </c>
-      <c r="AJ13">
-        <v>1E-3</v>
+      <c r="B13" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="28">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="R13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="U13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="W13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="X13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AH13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AI13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AJ13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="str">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B15</f>
         <v>offshore wind</v>
       </c>
-      <c r="B14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="K14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="L14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="M14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="N14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="P14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="Q14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="R14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="S14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="T14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="U14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="V14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="W14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="X14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="Y14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="Z14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AA14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AB14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AC14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AD14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AE14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AF14">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AG14">
-        <v>0.48799999999999999</v>
+      <c r="B14" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="28">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="R14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="T14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="U14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="W14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="X14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AH14" s="28">
         <f t="shared" si="3"/>
-        <v>0.48799999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AI14" s="28">
         <f t="shared" si="3"/>
-        <v>0.48799999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AJ14" s="28">
         <f t="shared" si="3"/>
-        <v>0.48799999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="str">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B16</f>
         <v>crude oil</v>
       </c>
-      <c r="B15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="L15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="M15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="N15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="O15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="P15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Q15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="R15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="S15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="T15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="U15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="V15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="W15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="X15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Y15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Z15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AA15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AB15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AC15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AD15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AE15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AF15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AG15">
-        <v>5.2999999999999999E-2</v>
+      <c r="B15" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="28">
+        <f>B15</f>
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="R15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="T15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="U15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="W15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="X15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AH15" s="28">
-        <f>'Pre-ret calculations 2021'!AI16</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AI15" s="28">
-        <f>'Pre-ret calculations 2021'!AJ16</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AJ15" s="28">
-        <f>'Pre-ret calculations 2021'!AK16</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="str">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B17</f>
         <v>heavy or residual fuel oil</v>
       </c>
-      <c r="B16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="H16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="L16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="M16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="N16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="O16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="P16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Q16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="R16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="S16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="T16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="U16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="V16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="W16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="X16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Y16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Z16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AA16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AB16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AC16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AD16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AE16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AF16">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AG16">
-        <v>5.2999999999999999E-2</v>
+      <c r="B16" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="28">
+        <f t="shared" ref="C16:R17" si="4">B16</f>
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="M16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="R16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="S16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="T16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="U16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="W16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="X16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AH16" s="28">
-        <f>'Pre-ret calculations 2021'!AI17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AI16" s="28">
-        <f>'Pre-ret calculations 2021'!AJ17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AJ16" s="28">
-        <f>'Pre-ret calculations 2021'!AK17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="str">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B18</f>
         <v>municipal solid waste</v>
       </c>
-      <c r="B17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="C17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="F17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="G17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="H17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="I17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="J17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="K17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="L17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="M17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="N17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="O17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="P17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="Q17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="R17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="S17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="T17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="U17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="V17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="W17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="X17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="Y17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="Z17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AA17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AB17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AC17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AD17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AE17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AF17">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="AG17">
-        <v>0.67400000000000004</v>
+      <c r="B17" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="28">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="N17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="R17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="T17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="U17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="V17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="W17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="X17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AA17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AH17" s="28">
-        <f>'Pre-ret calculations 2021'!AI18</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AI17" s="28">
-        <f>'Pre-ret calculations 2021'!AJ18</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="AJ17" s="28">
-        <f>'Pre-ret calculations 2021'!AK18</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -43325,49 +43537,49 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:AJ17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" style="27" customWidth="1"/>
     <col min="5" max="5" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="27"/>
+    <col min="36" max="36" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="28">
         <f>About!B24</f>
         <v>2019</v>
@@ -43509,7 +43721,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>121</v>
       </c>
@@ -43653,7 +43865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -43797,7 +44009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -43941,7 +44153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -44085,7 +44297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -44229,7 +44441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>127</v>
       </c>
@@ -44373,7 +44585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>129</v>
       </c>
@@ -44517,7 +44729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>130</v>
       </c>
@@ -44661,7 +44873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>131</v>
       </c>
@@ -44805,7 +45017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>40</v>
       </c>
@@ -44949,7 +45161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>132</v>
       </c>
@@ -45093,7 +45305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>144</v>
       </c>
@@ -45237,7 +45449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>134</v>
       </c>
@@ -45381,8 +45593,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="28">
@@ -45491,8 +45703,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="28">
@@ -45601,8 +45813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="39" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="28">
@@ -45724,49 +45936,49 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" style="27" customWidth="1"/>
     <col min="5" max="5" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="27"/>
+    <col min="36" max="36" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="28">
         <f>About!B24</f>
         <v>2019</v>
@@ -45908,7 +46120,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B3</f>
         <v>hard coal</v>
@@ -46054,7 +46266,7 @@
         <v>0.70400000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B4</f>
         <v>natural gas nonpeaker</v>
@@ -46064,7 +46276,7 @@
         <v>0.14916000000000004</v>
       </c>
       <c r="C3" s="28">
-        <f t="shared" ref="C3:R16" si="2">B3</f>
+        <f t="shared" ref="C3:R17" si="2">B3</f>
         <v>0.14916000000000004</v>
       </c>
       <c r="D3" s="28">
@@ -46200,7 +46412,7 @@
         <v>0.14916000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B5</f>
         <v>nuclear</v>
@@ -46346,7 +46558,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B6</f>
         <v>hydro</v>
@@ -46492,7 +46704,7 @@
         <v>0.59290000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B7</f>
         <v>onshore wind</v>
@@ -46638,7 +46850,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B8</f>
         <v>solar PV</v>
@@ -46784,7 +46996,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B9</f>
         <v>solar thermal</v>
@@ -46930,7 +47142,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B10</f>
         <v>biomass</v>
@@ -47076,7 +47288,7 @@
         <v>0.45430000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B11</f>
         <v>geothermal</v>
@@ -47222,7 +47434,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B12</f>
         <v>petroleum</v>
@@ -47368,7 +47580,7 @@
         <v>0.1573</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B13</f>
         <v>natural gas peaker</v>
@@ -47514,153 +47726,153 @@
         <v>0.22374000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B14</f>
         <v>lignite</v>
       </c>
       <c r="B13" s="28">
         <f>'BECF-pre-ret'!B13*About!B$36</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="C13" s="28">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="D13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="I13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="J13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="K13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="L13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="P13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="Q13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="R13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="S13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="T13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="U13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="V13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="X13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="Y13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="Z13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AA13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AC13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AE13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AH13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AI13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="AJ13" s="28">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B15</f>
         <v>offshore wind</v>
@@ -47806,442 +48018,442 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B16</f>
         <v>crude oil</v>
       </c>
       <c r="B15" s="28">
         <f>'BECF-pre-ret'!B15</f>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C15" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="U15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="V15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="W15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="X15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Y15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Z15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AA15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AB15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AD15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AE15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AF15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AG15" s="28">
         <f t="shared" si="3"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AH15" s="28">
-        <f t="shared" ref="AH15:AJ16" si="4">AG15</f>
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" ref="AH15:AJ17" si="4">AG15</f>
+        <v>0.01</v>
       </c>
       <c r="AI15" s="28">
         <f t="shared" si="4"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AJ15" s="28">
         <f t="shared" si="4"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B17</f>
         <v>heavy or residual fuel oil</v>
       </c>
       <c r="B16" s="28">
         <f>'BECF-pre-ret'!B16</f>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R16" s="28">
         <f t="shared" si="2"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S16" s="28">
-        <f t="shared" ref="S16:AH16" si="5">R16</f>
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" ref="S16:AH17" si="5">R16</f>
+        <v>0.01</v>
       </c>
       <c r="T16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="U16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="V16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="W16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="X16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Y16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Z16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AA16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AB16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AD16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AE16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AF16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AG16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AH16" s="28">
         <f t="shared" si="5"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AI16" s="28">
         <f t="shared" si="4"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AJ16" s="28">
         <f t="shared" si="4"/>
-        <v>5.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="str">
         <f>'Pre-ret calculations 2021'!B18</f>
         <v>municipal solid waste</v>
       </c>
       <c r="B17" s="28">
         <f>'BECF-pre-ret'!B17</f>
-        <v>0.67400000000000004</v>
+        <v>0.01</v>
       </c>
       <c r="C17" s="28">
-        <f t="shared" ref="C17" si="6">B17</f>
-        <v>0.67400000000000004</v>
+        <f>B17</f>
+        <v>0.01</v>
       </c>
       <c r="D17" s="28">
-        <f t="shared" ref="D17" si="7">C17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="E17" s="28">
-        <f t="shared" ref="E17" si="8">D17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17" si="9">E17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" ref="G17" si="10">F17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="H17" s="28">
-        <f t="shared" ref="H17" si="11">G17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="12">H17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="J17" s="28">
-        <f t="shared" ref="J17" si="13">I17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="K17" s="28">
-        <f t="shared" ref="K17" si="14">J17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="L17" s="28">
-        <f t="shared" ref="L17" si="15">K17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="M17" s="28">
-        <f t="shared" ref="M17" si="16">L17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="N17" s="28">
-        <f t="shared" ref="N17" si="17">M17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="O17" s="28">
-        <f t="shared" ref="O17" si="18">N17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" ref="P17" si="19">O17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="Q17" s="28">
-        <f t="shared" ref="Q17" si="20">P17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="R17" s="28">
-        <f t="shared" ref="R17" si="21">Q17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="S17" s="28">
-        <f t="shared" ref="S17" si="22">R17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" ref="T17" si="23">S17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="U17" s="28">
-        <f t="shared" ref="U17" si="24">T17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="V17" s="28">
-        <f t="shared" ref="V17" si="25">U17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="W17" s="28">
-        <f t="shared" ref="W17" si="26">V17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="X17" s="28">
-        <f t="shared" ref="X17" si="27">W17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="Y17" s="28">
-        <f t="shared" ref="Y17" si="28">X17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="Z17" s="28">
-        <f t="shared" ref="Z17" si="29">Y17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AA17" s="28">
-        <f t="shared" ref="AA17" si="30">Z17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AB17" s="28">
-        <f t="shared" ref="AB17" si="31">AA17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AC17" s="28">
-        <f t="shared" ref="AC17" si="32">AB17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AD17" s="28">
-        <f t="shared" ref="AD17" si="33">AC17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AE17" s="28">
-        <f t="shared" ref="AE17" si="34">AD17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AF17" s="28">
-        <f t="shared" ref="AF17" si="35">AE17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AG17" s="28">
-        <f t="shared" ref="AG17" si="36">AF17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AH17" s="28">
-        <f t="shared" ref="AH17" si="37">AG17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
       </c>
       <c r="AI17" s="28">
-        <f t="shared" ref="AI17" si="38">AH17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="AJ17" s="28">
-        <f t="shared" ref="AJ17" si="39">AI17</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -48250,8 +48462,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -48275,6 +48487,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -48361,6 +48575,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -48517,12 +48743,15 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEF58C0D-2D7D-46C7-93E5-4B8A971FE8DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8ACCC4-7696-48F6-99F0-D269CC545604}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -48555,6 +48784,7 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1685B476-4967-4FB2-AE5B-3D6FAD20BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618EE92-9F54-4887-95FC-213D10CF49AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11990" yWindow="850" windowWidth="13920" windowHeight="12600" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="22950" windowHeight="12615" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -855,12 +855,12 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -871,14 +871,6 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1733,6 +1725,14 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2135,7 +2135,7 @@
     <tableColumn id="12" xr3:uid="{11441534-D38E-4D11-AE46-3476ABC6D92A}" name="2015"/>
     <tableColumn id="13" xr3:uid="{1AA5BA31-5C53-42EC-8F0C-D66984849DA4}" name="2016"/>
     <tableColumn id="14" xr3:uid="{D52FE2FE-98D3-41B6-A4B6-B7529DAC1993}" name="2017"/>
-    <tableColumn id="15" xr3:uid="{85BCC882-E392-4582-99FF-31CE3F6D78DC}" name="2018" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{85BCC882-E392-4582-99FF-31CE3F6D78DC}" name="2018" dataDxfId="48"/>
     <tableColumn id="16" xr3:uid="{B1B9780A-A1E4-4A07-B28D-AF9A4BF8067C}" name="2019"/>
     <tableColumn id="17" xr3:uid="{6B2E5B22-61EA-4E36-BF4B-B70A3E2D986E}" name="2020"/>
     <tableColumn id="18" xr3:uid="{C80AF970-BF98-439F-87CA-761624873F39}" name="2021"/>
@@ -2946,61 +2946,61 @@
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{C955B4A6-58BD-AC41-A4BA-B0D824651C86}" name="Table158" displayName="Table158" ref="A8:AU17" totalsRowCount="1">
   <tableColumns count="47">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="_" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2005" totalsRowDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2006" totalsRowDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2007" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2008" totalsRowDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2009" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010" totalsRowDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012" totalsRowDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014" totalsRowDxfId="38" dataCellStyle="Normal 3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015" totalsRowFunction="custom" totalsRowDxfId="37" dataCellStyle="Normal 3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="_" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2005" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2006" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2007" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2008" totalsRowDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2009" totalsRowDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010" totalsRowDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011" totalsRowDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012" totalsRowDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013" totalsRowDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014" totalsRowDxfId="37" dataCellStyle="Normal 3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015" totalsRowFunction="custom" totalsRowDxfId="36" dataCellStyle="Normal 3">
       <totalsRowFormula>SUBTOTAL(109,Table158[2015])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016" totalsRowFunction="custom" totalsRowDxfId="36" dataCellStyle="Normal 3">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016" totalsRowFunction="custom" totalsRowDxfId="35" dataCellStyle="Normal 3">
       <totalsRowFormula>SUBTOTAL(109,Table158[2016])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017" totalsRowFunction="custom" totalsRowDxfId="35" dataCellStyle="Normal 3">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017" totalsRowFunction="custom" totalsRowDxfId="34" dataCellStyle="Normal 3">
       <totalsRowFormula>SUBTOTAL(109,Table158[2017])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018" totalsRowFunction="custom" totalsRowDxfId="34" dataCellStyle="Normal 3">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018" totalsRowFunction="custom" totalsRowDxfId="33" dataCellStyle="Normal 3">
       <totalsRowFormula>SUBTOTAL(109,Table158[2018])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal 3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020" totalsRowDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2021" totalsRowDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2022" totalsRowDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2023" totalsRowDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2024" totalsRowDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2025" totalsRowDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2026" totalsRowDxfId="25"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2027" totalsRowDxfId="24"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2028" totalsRowDxfId="23"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2029" totalsRowDxfId="22"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2030" totalsRowDxfId="21"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2031" totalsRowDxfId="20"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2032" totalsRowDxfId="19"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2033" totalsRowDxfId="18"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2034" totalsRowDxfId="17"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2035" totalsRowDxfId="16"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2036" totalsRowDxfId="15"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2037" totalsRowDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2038" totalsRowDxfId="13"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2039" totalsRowDxfId="12"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2040" totalsRowDxfId="11"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2041" totalsRowDxfId="10"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2042" totalsRowDxfId="9"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2043" totalsRowDxfId="8"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2044" totalsRowDxfId="7"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2045" totalsRowDxfId="6"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2046" totalsRowDxfId="5"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2047" totalsRowDxfId="4"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2048" totalsRowDxfId="3"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2049" totalsRowDxfId="2"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2050" totalsRowDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal 3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020" totalsRowDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2021" totalsRowDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2022" totalsRowDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2023" totalsRowDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2024" totalsRowDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2025" totalsRowDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2026" totalsRowDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2027" totalsRowDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2028" totalsRowDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2029" totalsRowDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2030" totalsRowDxfId="20"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2031" totalsRowDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2032" totalsRowDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2033" totalsRowDxfId="17"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2034" totalsRowDxfId="16"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2035" totalsRowDxfId="15"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2036" totalsRowDxfId="14"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2037" totalsRowDxfId="13"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2038" totalsRowDxfId="12"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2039" totalsRowDxfId="11"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2040" totalsRowDxfId="10"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2041" totalsRowDxfId="9"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2042" totalsRowDxfId="8"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2043" totalsRowDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2044" totalsRowDxfId="6"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2045" totalsRowDxfId="5"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2046" totalsRowDxfId="4"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2047" totalsRowDxfId="3"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2048" totalsRowDxfId="2"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2049" totalsRowDxfId="1"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2050" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4405,18 +4405,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="82.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4424,94 +4424,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4519,59 +4519,59 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:2" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="43"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -4579,37 +4579,37 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
@@ -4617,12 +4617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -4630,13 +4630,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="34"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -4678,51 +4678,51 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="27" customWidth="1"/>
-    <col min="3" max="5" width="9.1796875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="27" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.81640625" style="27"/>
+    <col min="37" max="37" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="28">
         <v>2018</v>
       </c>
@@ -4867,2295 +4867,2403 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B3</f>
         <v>hard coal</v>
       </c>
       <c r="B2" s="27">
-        <f>C2</f>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!B2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="C2" s="27">
-        <f>'BECF-pre-ret'!C2*About!B$36</f>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!C2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="D2" s="27">
-        <f>C2</f>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!D2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="E2" s="27">
-        <f t="shared" ref="E2:AK10" si="1">D2</f>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!E2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="F2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!F2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="G2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!G2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="H2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!H2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="I2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!I2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="J2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!J2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="K2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!K2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="L2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!L2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="M2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!M2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="N2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!N2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="O2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!O2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="P2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!P2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="Q2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!Q2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="R2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!R2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="S2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!S2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="T2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!T2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="U2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!U2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="V2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!V2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="W2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!W2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="X2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!X2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="Y2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!Y2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="Z2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!Z2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AA2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AA2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AB2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AB2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AC2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AC2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AD2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AD2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AE2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AE2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AF2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AF2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AG2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AG2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AH2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AH2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AI2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AI2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AJ2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AJ2</f>
+        <v>0.59472875665869829</v>
       </c>
       <c r="AK2" s="27">
-        <f t="shared" si="1"/>
-        <v>0.65420163232456818</v>
+        <f>'BECF-pre-ret'!AK2</f>
+        <v>0.59472875665869829</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B4</f>
         <v>natural gas nonpeaker</v>
       </c>
       <c r="B3" s="27">
-        <f t="shared" ref="B3:B14" si="2">C3</f>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!B3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="C3" s="27">
-        <f>'BECF-pre-ret'!C3*About!B$36</f>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!C3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="D3" s="27">
-        <f t="shared" ref="D3:S14" si="3">C3</f>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!D3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="E3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!E3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="F3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!F3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="G3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!G3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="H3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!H3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="I3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!I3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="J3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!J3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="K3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!K3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="L3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!L3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="M3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!M3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="N3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!N3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="O3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!O3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="P3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!P3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="Q3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!Q3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="R3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!R3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="S3" s="27">
-        <f t="shared" si="3"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!S3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="T3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!T3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="U3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!U3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="V3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!V3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="W3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!W3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="X3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!X3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="Y3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!Y3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="Z3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!Z3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AA3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AA3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AB3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AB3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AC3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AC3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AD3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AD3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AE3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AE3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AF3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AF3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AG3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AG3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AH3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AH3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AI3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AI3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AJ3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AJ3</f>
+        <v>0.33883271401335374</v>
       </c>
       <c r="AK3" s="27">
-        <f t="shared" si="1"/>
-        <v>0.37271598541468914</v>
+        <f>'BECF-pre-ret'!AK3</f>
+        <v>0.33883271401335374</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B5</f>
         <v>nuclear</v>
       </c>
       <c r="B4" s="27">
-        <f t="shared" si="2"/>
+        <f>'BECF-pre-ret'!B4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="C4" s="27">
-        <f>'BECF-pre-ret'!C4*About!B43</f>
+        <f>'BECF-pre-ret'!C4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="D4" s="27">
-        <f t="shared" si="3"/>
+        <f>'BECF-pre-ret'!D4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="E4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!E4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="F4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!F4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="G4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!G4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="H4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!H4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="I4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!I4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="J4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!J4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="K4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!K4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="L4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!L4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="M4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!M4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="N4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!N4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="O4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!O4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="P4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!P4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="Q4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!Q4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="R4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!R4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="S4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!S4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="T4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!T4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="U4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!U4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="V4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!V4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="W4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!W4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="X4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!X4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="Y4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!Y4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="Z4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!Z4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AA4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AA4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AB4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AB4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AC4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AC4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AD4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AD4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AE4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AE4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AF4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AF4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AG4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AG4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AH4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AH4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AI4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AI4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AJ4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AJ4</f>
         <v>0.81331987571473274</v>
       </c>
       <c r="AK4" s="27">
-        <f t="shared" si="1"/>
+        <f>'BECF-pre-ret'!AK4</f>
         <v>0.81331987571473274</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B6</f>
         <v>hydro</v>
       </c>
       <c r="B5" s="27">
-        <f t="shared" si="2"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!B5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="C5" s="27">
-        <f>'BECF-pre-ret'!C5*About!B$36</f>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!C5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="D5" s="27">
-        <f t="shared" si="3"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!D5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="E5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!E5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="F5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!F5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="G5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!G5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="H5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!H5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="I5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!I5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="J5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!J5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="K5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!K5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="L5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!L5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="M5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!M5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="N5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!N5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="O5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!O5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="P5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!P5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="Q5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!Q5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="R5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!R5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="S5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!S5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="T5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!T5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="U5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!U5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="V5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!V5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="W5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!W5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="X5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!X5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="Y5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!Y5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="Z5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!Z5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AA5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AA5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AB5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AB5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AC5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AC5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AD5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AD5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AE5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AE5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AF5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AF5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AG5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AG5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AH5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AH5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AI5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AI5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AJ5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AJ5</f>
+        <v>0.5360549337744609</v>
       </c>
       <c r="AK5" s="27">
-        <f t="shared" si="1"/>
-        <v>0.58966042715190703</v>
+        <f>'BECF-pre-ret'!AK5</f>
+        <v>0.5360549337744609</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B7</f>
         <v>onshore wind</v>
       </c>
       <c r="B6" s="27">
-        <f t="shared" si="2"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!B6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="C6" s="27">
-        <f>LCOE!D7</f>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!C6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="D6" s="27">
-        <f t="shared" si="3"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!D6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="E6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!E6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="F6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!F6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="G6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!G6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="H6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!H6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="I6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!I6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="J6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!J6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="K6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!K6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="L6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!L6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="M6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!M6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="N6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!N6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="O6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!O6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="P6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!P6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="Q6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!Q6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="R6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!R6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="S6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!S6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="T6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!T6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="U6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!U6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="V6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!V6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="W6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!W6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="X6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!X6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="Y6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!Y6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="Z6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!Z6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AA6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AA6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AB6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AB6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AC6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AC6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AD6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AD6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AE6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AE6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AF6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AF6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AG6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AG6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AH6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AH6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AI6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AI6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AJ6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AJ6</f>
+        <v>0.29306791787534597</v>
       </c>
       <c r="AK6" s="27">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <f>'BECF-pre-ret'!AK6</f>
+        <v>0.29306791787534597</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B8</f>
         <v>solar PV</v>
       </c>
       <c r="B7" s="27">
-        <f t="shared" si="2"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!B7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="C7" s="27">
-        <f>LCOE!D8</f>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!C7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="D7" s="27">
-        <f t="shared" si="3"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!D7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="E7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!E7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="F7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!F7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="G7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!G7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="H7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!H7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="I7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!I7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="J7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!J7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="K7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!K7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="L7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!L7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="M7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!M7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="N7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!N7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="O7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!O7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="P7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!P7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="Q7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!Q7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="R7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!R7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="S7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!S7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="T7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!T7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="U7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!U7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="V7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!V7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="W7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!W7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="X7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!X7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="Y7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!Y7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="Z7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!Z7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AA7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AA7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AB7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AB7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AC7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AC7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AD7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AE7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AF7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AG7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AH7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AI7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AJ7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.28499999999999998</v>
+        <f>'BECF-pre-ret'!AK7</f>
+        <v>9.1958466704588307E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B9</f>
         <v>solar thermal</v>
       </c>
       <c r="B8" s="27">
-        <f t="shared" si="2"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!B8</f>
+        <v>0.01</v>
       </c>
       <c r="C8" s="27">
-        <f>LCOE!D9</f>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!C8</f>
+        <v>0.01</v>
       </c>
       <c r="D8" s="27">
-        <f t="shared" si="3"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!D8</f>
+        <v>0.01</v>
       </c>
       <c r="E8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!E8</f>
+        <v>0.01</v>
       </c>
       <c r="F8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!F8</f>
+        <v>0.01</v>
       </c>
       <c r="G8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!G8</f>
+        <v>0.01</v>
       </c>
       <c r="H8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!H8</f>
+        <v>0.01</v>
       </c>
       <c r="I8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!I8</f>
+        <v>0.01</v>
       </c>
       <c r="J8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!J8</f>
+        <v>0.01</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!K8</f>
+        <v>0.01</v>
       </c>
       <c r="L8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!L8</f>
+        <v>0.01</v>
       </c>
       <c r="M8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!M8</f>
+        <v>0.01</v>
       </c>
       <c r="N8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!N8</f>
+        <v>0.01</v>
       </c>
       <c r="O8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!O8</f>
+        <v>0.01</v>
       </c>
       <c r="P8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!P8</f>
+        <v>0.01</v>
       </c>
       <c r="Q8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!Q8</f>
+        <v>0.01</v>
       </c>
       <c r="R8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!R8</f>
+        <v>0.01</v>
       </c>
       <c r="S8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!S8</f>
+        <v>0.01</v>
       </c>
       <c r="T8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!T8</f>
+        <v>0.01</v>
       </c>
       <c r="U8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!U8</f>
+        <v>0.01</v>
       </c>
       <c r="V8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!V8</f>
+        <v>0.01</v>
       </c>
       <c r="W8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!W8</f>
+        <v>0.01</v>
       </c>
       <c r="X8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!X8</f>
+        <v>0.01</v>
       </c>
       <c r="Y8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!Y8</f>
+        <v>0.01</v>
       </c>
       <c r="Z8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!Z8</f>
+        <v>0.01</v>
       </c>
       <c r="AA8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AA8</f>
+        <v>0.01</v>
       </c>
       <c r="AB8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AB8</f>
+        <v>0.01</v>
       </c>
       <c r="AC8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AC8</f>
+        <v>0.01</v>
       </c>
       <c r="AD8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AD8</f>
+        <v>0.01</v>
       </c>
       <c r="AE8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AE8</f>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AF8</f>
+        <v>0.01</v>
       </c>
       <c r="AG8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AG8</f>
+        <v>0.01</v>
       </c>
       <c r="AH8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AH8</f>
+        <v>0.01</v>
       </c>
       <c r="AI8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AI8</f>
+        <v>0.01</v>
       </c>
       <c r="AJ8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AJ8</f>
+        <v>0.01</v>
       </c>
       <c r="AK8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
+        <f>'BECF-pre-ret'!AK8</f>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B10</f>
         <v>biomass</v>
       </c>
       <c r="B9" s="27">
-        <f t="shared" si="2"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!B9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="C9" s="27">
-        <f>'BECF-pre-ret'!C9*About!B$36</f>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!C9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D9" s="27">
-        <f t="shared" si="3"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!D9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!E9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="F9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!F9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!G9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="H9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!H9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!I9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="J9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!J9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="K9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!K9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="L9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!L9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="M9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!M9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="N9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!N9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="O9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!O9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="P9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!P9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="Q9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!Q9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="R9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!R9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="S9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!S9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="T9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!T9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="U9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!U9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="V9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!V9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="W9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!W9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="X9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!X9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="Y9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!Y9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="Z9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!Z9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AA9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AA9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AB9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AB9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AC9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AC9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AD9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AD9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AE9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AE9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AF9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AF9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AG9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AG9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AH9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AH9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AI9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AI9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AJ9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AJ9</f>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AK9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.45430000000000004</v>
+        <f>'BECF-pre-ret'!AK9</f>
+        <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B11</f>
         <v>geothermal</v>
       </c>
       <c r="B10" s="27">
-        <f t="shared" si="2"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!B10</f>
+        <v>0.01</v>
       </c>
       <c r="C10" s="27">
-        <f>LCOE!D11</f>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!C10</f>
+        <v>0.01</v>
       </c>
       <c r="D10" s="27">
-        <f t="shared" si="3"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!D10</f>
+        <v>0.01</v>
       </c>
       <c r="E10" s="27">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!E10</f>
+        <v>0.01</v>
       </c>
       <c r="F10" s="27">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!F10</f>
+        <v>0.01</v>
       </c>
       <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!G10</f>
+        <v>0.01</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!H10</f>
+        <v>0.01</v>
       </c>
       <c r="I10" s="27">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!I10</f>
+        <v>0.01</v>
       </c>
       <c r="J10" s="27">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!J10</f>
+        <v>0.01</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" ref="E10:AK14" si="4">J10</f>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!K10</f>
+        <v>0.01</v>
       </c>
       <c r="L10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!L10</f>
+        <v>0.01</v>
       </c>
       <c r="M10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!M10</f>
+        <v>0.01</v>
       </c>
       <c r="N10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!N10</f>
+        <v>0.01</v>
       </c>
       <c r="O10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!O10</f>
+        <v>0.01</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!P10</f>
+        <v>0.01</v>
       </c>
       <c r="Q10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!Q10</f>
+        <v>0.01</v>
       </c>
       <c r="R10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!R10</f>
+        <v>0.01</v>
       </c>
       <c r="S10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!S10</f>
+        <v>0.01</v>
       </c>
       <c r="T10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!T10</f>
+        <v>0.01</v>
       </c>
       <c r="U10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!U10</f>
+        <v>0.01</v>
       </c>
       <c r="V10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!V10</f>
+        <v>0.01</v>
       </c>
       <c r="W10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!W10</f>
+        <v>0.01</v>
       </c>
       <c r="X10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!X10</f>
+        <v>0.01</v>
       </c>
       <c r="Y10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!Y10</f>
+        <v>0.01</v>
       </c>
       <c r="Z10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!Z10</f>
+        <v>0.01</v>
       </c>
       <c r="AA10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AA10</f>
+        <v>0.01</v>
       </c>
       <c r="AB10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AB10</f>
+        <v>0.01</v>
       </c>
       <c r="AC10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AC10</f>
+        <v>0.01</v>
       </c>
       <c r="AD10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AD10</f>
+        <v>0.01</v>
       </c>
       <c r="AE10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AE10</f>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AF10</f>
+        <v>0.01</v>
       </c>
       <c r="AG10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AG10</f>
+        <v>0.01</v>
       </c>
       <c r="AH10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AH10</f>
+        <v>0.01</v>
       </c>
       <c r="AI10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AI10</f>
+        <v>0.01</v>
       </c>
       <c r="AJ10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AJ10</f>
+        <v>0.01</v>
       </c>
       <c r="AK10" s="27">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
+        <f>'BECF-pre-ret'!AK10</f>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B12</f>
         <v>petroleum</v>
       </c>
       <c r="B11" s="27">
-        <f t="shared" si="2"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!B11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="C11" s="27">
-        <f>'BECF-pre-ret'!C11*About!B$36</f>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!C11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="D11" s="27">
-        <f t="shared" si="3"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!D11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="E11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!E11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="F11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!F11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="G11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!G11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="H11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!H11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!I11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="J11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!J11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!K11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="L11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!L11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="M11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!M11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="N11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!N11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="O11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!O11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="P11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!P11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="Q11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!Q11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="R11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!R11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="S11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!S11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="T11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!T11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="U11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!U11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="V11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!V11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="W11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!W11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="X11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!X11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="Y11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!Y11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="Z11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!Z11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AA11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AA11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AB11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AC11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AC11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AD11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AE11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AF11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AG11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AH11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AI11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AJ11</f>
+        <v>0.13230750666194346</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="4"/>
-        <v>0.14553825732813783</v>
+        <f>'BECF-pre-ret'!AK11</f>
+        <v>0.13230750666194346</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B13</f>
         <v>natural gas peaker</v>
       </c>
       <c r="B12" s="27">
-        <f t="shared" si="2"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!B12</f>
+        <v>0.2034</v>
       </c>
       <c r="C12" s="27">
-        <f>'BECF-pre-ret'!C12*About!B$36</f>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!C12</f>
+        <v>0.2034</v>
       </c>
       <c r="D12" s="27">
-        <f t="shared" si="3"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!D12</f>
+        <v>0.2034</v>
       </c>
       <c r="E12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!E12</f>
+        <v>0.2034</v>
       </c>
       <c r="F12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!F12</f>
+        <v>0.2034</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!G12</f>
+        <v>0.2034</v>
       </c>
       <c r="H12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!H12</f>
+        <v>0.2034</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!I12</f>
+        <v>0.2034</v>
       </c>
       <c r="J12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!J12</f>
+        <v>0.2034</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!K12</f>
+        <v>0.2034</v>
       </c>
       <c r="L12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!L12</f>
+        <v>0.2034</v>
       </c>
       <c r="M12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!M12</f>
+        <v>0.2034</v>
       </c>
       <c r="N12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!N12</f>
+        <v>0.2034</v>
       </c>
       <c r="O12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!O12</f>
+        <v>0.2034</v>
       </c>
       <c r="P12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!P12</f>
+        <v>0.2034</v>
       </c>
       <c r="Q12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!Q12</f>
+        <v>0.2034</v>
       </c>
       <c r="R12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!R12</f>
+        <v>0.2034</v>
       </c>
       <c r="S12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!S12</f>
+        <v>0.2034</v>
       </c>
       <c r="T12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!T12</f>
+        <v>0.2034</v>
       </c>
       <c r="U12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!U12</f>
+        <v>0.2034</v>
       </c>
       <c r="V12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!V12</f>
+        <v>0.2034</v>
       </c>
       <c r="W12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!W12</f>
+        <v>0.2034</v>
       </c>
       <c r="X12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!X12</f>
+        <v>0.2034</v>
       </c>
       <c r="Y12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!Y12</f>
+        <v>0.2034</v>
       </c>
       <c r="Z12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!Z12</f>
+        <v>0.2034</v>
       </c>
       <c r="AA12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AA12</f>
+        <v>0.2034</v>
       </c>
       <c r="AB12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AB12</f>
+        <v>0.2034</v>
       </c>
       <c r="AC12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AC12</f>
+        <v>0.2034</v>
       </c>
       <c r="AD12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AD12</f>
+        <v>0.2034</v>
       </c>
       <c r="AE12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AE12</f>
+        <v>0.2034</v>
       </c>
       <c r="AF12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AF12</f>
+        <v>0.2034</v>
       </c>
       <c r="AG12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AG12</f>
+        <v>0.2034</v>
       </c>
       <c r="AH12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AH12</f>
+        <v>0.2034</v>
       </c>
       <c r="AI12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AI12</f>
+        <v>0.2034</v>
       </c>
       <c r="AJ12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AJ12</f>
+        <v>0.2034</v>
       </c>
       <c r="AK12" s="27">
-        <f t="shared" si="4"/>
-        <v>0.22374000000000002</v>
+        <f>'BECF-pre-ret'!AK12</f>
+        <v>0.2034</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B14</f>
         <v>lignite</v>
       </c>
       <c r="B13" s="27">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!B13</f>
+        <v>0.01</v>
       </c>
       <c r="C13" s="27">
-        <f>'BECF-pre-ret'!C13*About!B$36</f>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!C13</f>
+        <v>0.01</v>
       </c>
       <c r="D13" s="27">
-        <f t="shared" si="3"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!D13</f>
+        <v>0.01</v>
       </c>
       <c r="E13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!E13</f>
+        <v>0.01</v>
       </c>
       <c r="F13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!F13</f>
+        <v>0.01</v>
       </c>
       <c r="G13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!G13</f>
+        <v>0.01</v>
       </c>
       <c r="H13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!H13</f>
+        <v>0.01</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!I13</f>
+        <v>0.01</v>
       </c>
       <c r="J13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!J13</f>
+        <v>0.01</v>
       </c>
       <c r="K13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!K13</f>
+        <v>0.01</v>
       </c>
       <c r="L13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!L13</f>
+        <v>0.01</v>
       </c>
       <c r="M13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!M13</f>
+        <v>0.01</v>
       </c>
       <c r="N13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!N13</f>
+        <v>0.01</v>
       </c>
       <c r="O13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!O13</f>
+        <v>0.01</v>
       </c>
       <c r="P13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!P13</f>
+        <v>0.01</v>
       </c>
       <c r="Q13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!Q13</f>
+        <v>0.01</v>
       </c>
       <c r="R13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!R13</f>
+        <v>0.01</v>
       </c>
       <c r="S13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!S13</f>
+        <v>0.01</v>
       </c>
       <c r="T13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!T13</f>
+        <v>0.01</v>
       </c>
       <c r="U13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!U13</f>
+        <v>0.01</v>
       </c>
       <c r="V13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!V13</f>
+        <v>0.01</v>
       </c>
       <c r="W13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!W13</f>
+        <v>0.01</v>
       </c>
       <c r="X13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!X13</f>
+        <v>0.01</v>
       </c>
       <c r="Y13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!Y13</f>
+        <v>0.01</v>
       </c>
       <c r="Z13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!Z13</f>
+        <v>0.01</v>
       </c>
       <c r="AA13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AA13</f>
+        <v>0.01</v>
       </c>
       <c r="AB13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AB13</f>
+        <v>0.01</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AC13</f>
+        <v>0.01</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AD13</f>
+        <v>0.01</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AE13</f>
+        <v>0.01</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AF13</f>
+        <v>0.01</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AG13</f>
+        <v>0.01</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AH13</f>
+        <v>0.01</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AI13</f>
+        <v>0.01</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AJ13</f>
+        <v>0.01</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001E-2</v>
+        <f>'BECF-pre-ret'!AK13</f>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B15</f>
         <v>offshore wind</v>
       </c>
       <c r="B14" s="27">
-        <f t="shared" si="2"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!B14</f>
+        <v>0.01</v>
       </c>
       <c r="C14" s="27">
-        <f>LCOE!D15</f>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!C14</f>
+        <v>0.01</v>
       </c>
       <c r="D14" s="27">
-        <f t="shared" si="3"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!D14</f>
+        <v>0.01</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!E14</f>
+        <v>0.01</v>
       </c>
       <c r="F14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!F14</f>
+        <v>0.01</v>
       </c>
       <c r="G14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!G14</f>
+        <v>0.01</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!H14</f>
+        <v>0.01</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!I14</f>
+        <v>0.01</v>
       </c>
       <c r="J14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!J14</f>
+        <v>0.01</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!K14</f>
+        <v>0.01</v>
       </c>
       <c r="L14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!L14</f>
+        <v>0.01</v>
       </c>
       <c r="M14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!M14</f>
+        <v>0.01</v>
       </c>
       <c r="N14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!N14</f>
+        <v>0.01</v>
       </c>
       <c r="O14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!O14</f>
+        <v>0.01</v>
       </c>
       <c r="P14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!P14</f>
+        <v>0.01</v>
       </c>
       <c r="Q14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!Q14</f>
+        <v>0.01</v>
       </c>
       <c r="R14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!R14</f>
+        <v>0.01</v>
       </c>
       <c r="S14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!S14</f>
+        <v>0.01</v>
       </c>
       <c r="T14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!T14</f>
+        <v>0.01</v>
       </c>
       <c r="U14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!U14</f>
+        <v>0.01</v>
       </c>
       <c r="V14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!V14</f>
+        <v>0.01</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!W14</f>
+        <v>0.01</v>
       </c>
       <c r="X14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!X14</f>
+        <v>0.01</v>
       </c>
       <c r="Y14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!Y14</f>
+        <v>0.01</v>
       </c>
       <c r="Z14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!Z14</f>
+        <v>0.01</v>
       </c>
       <c r="AA14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AA14</f>
+        <v>0.01</v>
       </c>
       <c r="AB14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AB14</f>
+        <v>0.01</v>
       </c>
       <c r="AC14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AC14</f>
+        <v>0.01</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AD14</f>
+        <v>0.01</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AE14</f>
+        <v>0.01</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AF14</f>
+        <v>0.01</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AG14</f>
+        <v>0.01</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AH14</f>
+        <v>0.01</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AI14</f>
+        <v>0.01</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AJ14</f>
+        <v>0.01</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51</v>
+        <f>'BECF-pre-ret'!AK14</f>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B16</f>
         <v>crude oil</v>
       </c>
-      <c r="B15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="G15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="H15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="J15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="K15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="L15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="M15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="N15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="O15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="P15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Q15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="R15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="S15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="T15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="U15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="V15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="W15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="X15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Y15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Z15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AA15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AB15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AC15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AD15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AE15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AF15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AG15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AH15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AI15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AJ15" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AK15" s="38">
+      <c r="B15" s="27">
+        <f>'BECF-pre-ret'!B15</f>
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="27">
+        <f>'BECF-pre-ret'!C15</f>
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="27">
+        <f>'BECF-pre-ret'!D15</f>
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="27">
+        <f>'BECF-pre-ret'!E15</f>
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="27">
+        <f>'BECF-pre-ret'!F15</f>
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="27">
+        <f>'BECF-pre-ret'!G15</f>
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="27">
+        <f>'BECF-pre-ret'!H15</f>
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="27">
+        <f>'BECF-pre-ret'!I15</f>
+        <v>0.01</v>
+      </c>
+      <c r="J15" s="27">
+        <f>'BECF-pre-ret'!J15</f>
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="27">
+        <f>'BECF-pre-ret'!K15</f>
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="27">
+        <f>'BECF-pre-ret'!L15</f>
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="27">
+        <f>'BECF-pre-ret'!M15</f>
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="27">
+        <f>'BECF-pre-ret'!N15</f>
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="27">
+        <f>'BECF-pre-ret'!O15</f>
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="27">
+        <f>'BECF-pre-ret'!P15</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q15" s="27">
+        <f>'BECF-pre-ret'!Q15</f>
+        <v>0.01</v>
+      </c>
+      <c r="R15" s="27">
+        <f>'BECF-pre-ret'!R15</f>
+        <v>0.01</v>
+      </c>
+      <c r="S15" s="27">
+        <f>'BECF-pre-ret'!S15</f>
+        <v>0.01</v>
+      </c>
+      <c r="T15" s="27">
+        <f>'BECF-pre-ret'!T15</f>
+        <v>0.01</v>
+      </c>
+      <c r="U15" s="27">
+        <f>'BECF-pre-ret'!U15</f>
+        <v>0.01</v>
+      </c>
+      <c r="V15" s="27">
+        <f>'BECF-pre-ret'!V15</f>
+        <v>0.01</v>
+      </c>
+      <c r="W15" s="27">
+        <f>'BECF-pre-ret'!W15</f>
+        <v>0.01</v>
+      </c>
+      <c r="X15" s="27">
+        <f>'BECF-pre-ret'!X15</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y15" s="27">
+        <f>'BECF-pre-ret'!Y15</f>
+        <v>0.01</v>
+      </c>
+      <c r="Z15" s="27">
+        <f>'BECF-pre-ret'!Z15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA15" s="27">
+        <f>'BECF-pre-ret'!AA15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AB15" s="27">
+        <f>'BECF-pre-ret'!AB15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AC15" s="27">
+        <f>'BECF-pre-ret'!AC15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AD15" s="27">
+        <f>'BECF-pre-ret'!AD15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AE15" s="27">
+        <f>'BECF-pre-ret'!AE15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF15" s="27">
+        <f>'BECF-pre-ret'!AF15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AG15" s="27">
+        <f>'BECF-pre-ret'!AG15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AH15" s="27">
+        <f>'BECF-pre-ret'!AH15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AI15" s="27">
+        <f>'BECF-pre-ret'!AI15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AJ15" s="27">
+        <f>'BECF-pre-ret'!AJ15</f>
+        <v>0.01</v>
+      </c>
+      <c r="AK15" s="27">
+        <f>'BECF-pre-ret'!AK15</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B17</f>
         <v>heavy or residual fuel oil</v>
       </c>
-      <c r="B16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="J16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="K16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="L16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="M16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="O16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="P16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Q16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="R16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="S16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="T16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="U16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="V16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="W16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="X16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Y16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Z16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AA16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AB16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AC16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AD16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AE16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AF16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AG16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AH16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AI16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AJ16" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AK16" s="38">
+      <c r="B16" s="27">
+        <f>'BECF-pre-ret'!B16</f>
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="27">
+        <f>'BECF-pre-ret'!C16</f>
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="27">
+        <f>'BECF-pre-ret'!D16</f>
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="27">
+        <f>'BECF-pre-ret'!E16</f>
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="27">
+        <f>'BECF-pre-ret'!F16</f>
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="27">
+        <f>'BECF-pre-ret'!G16</f>
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="27">
+        <f>'BECF-pre-ret'!H16</f>
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="27">
+        <f>'BECF-pre-ret'!I16</f>
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="27">
+        <f>'BECF-pre-ret'!J16</f>
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="27">
+        <f>'BECF-pre-ret'!K16</f>
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="27">
+        <f>'BECF-pre-ret'!L16</f>
+        <v>0.01</v>
+      </c>
+      <c r="M16" s="27">
+        <f>'BECF-pre-ret'!M16</f>
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="27">
+        <f>'BECF-pre-ret'!N16</f>
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="27">
+        <f>'BECF-pre-ret'!O16</f>
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="27">
+        <f>'BECF-pre-ret'!P16</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q16" s="27">
+        <f>'BECF-pre-ret'!Q16</f>
+        <v>0.01</v>
+      </c>
+      <c r="R16" s="27">
+        <f>'BECF-pre-ret'!R16</f>
+        <v>0.01</v>
+      </c>
+      <c r="S16" s="27">
+        <f>'BECF-pre-ret'!S16</f>
+        <v>0.01</v>
+      </c>
+      <c r="T16" s="27">
+        <f>'BECF-pre-ret'!T16</f>
+        <v>0.01</v>
+      </c>
+      <c r="U16" s="27">
+        <f>'BECF-pre-ret'!U16</f>
+        <v>0.01</v>
+      </c>
+      <c r="V16" s="27">
+        <f>'BECF-pre-ret'!V16</f>
+        <v>0.01</v>
+      </c>
+      <c r="W16" s="27">
+        <f>'BECF-pre-ret'!W16</f>
+        <v>0.01</v>
+      </c>
+      <c r="X16" s="27">
+        <f>'BECF-pre-ret'!X16</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y16" s="27">
+        <f>'BECF-pre-ret'!Y16</f>
+        <v>0.01</v>
+      </c>
+      <c r="Z16" s="27">
+        <f>'BECF-pre-ret'!Z16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="27">
+        <f>'BECF-pre-ret'!AA16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AB16" s="27">
+        <f>'BECF-pre-ret'!AB16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AC16" s="27">
+        <f>'BECF-pre-ret'!AC16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AD16" s="27">
+        <f>'BECF-pre-ret'!AD16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AE16" s="27">
+        <f>'BECF-pre-ret'!AE16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF16" s="27">
+        <f>'BECF-pre-ret'!AF16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AG16" s="27">
+        <f>'BECF-pre-ret'!AG16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AH16" s="27">
+        <f>'BECF-pre-ret'!AH16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AI16" s="27">
+        <f>'BECF-pre-ret'!AI16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AJ16" s="27">
+        <f>'BECF-pre-ret'!AJ16</f>
+        <v>0.01</v>
+      </c>
+      <c r="AK16" s="27">
+        <f>'BECF-pre-ret'!AK16</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B18</f>
         <v>municipal solid waste</v>
       </c>
-      <c r="B17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="C17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="D17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="H17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="J17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="L17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="M17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="N17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="O17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="P17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="R17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="S17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="T17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="U17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="V17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="W17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="X17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Y17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="Z17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AA17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AB17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AC17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AD17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AE17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AF17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AG17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AH17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AI17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AJ17" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="AK17" s="38">
+      <c r="B17" s="27">
+        <f>'BECF-pre-ret'!B17</f>
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="27">
+        <f>'BECF-pre-ret'!C17</f>
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="27">
+        <f>'BECF-pre-ret'!D17</f>
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="27">
+        <f>'BECF-pre-ret'!E17</f>
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="27">
+        <f>'BECF-pre-ret'!F17</f>
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="27">
+        <f>'BECF-pre-ret'!G17</f>
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="27">
+        <f>'BECF-pre-ret'!H17</f>
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="27">
+        <f>'BECF-pre-ret'!I17</f>
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="27">
+        <f>'BECF-pre-ret'!J17</f>
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="27">
+        <f>'BECF-pre-ret'!K17</f>
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="27">
+        <f>'BECF-pre-ret'!L17</f>
+        <v>0.01</v>
+      </c>
+      <c r="M17" s="27">
+        <f>'BECF-pre-ret'!M17</f>
+        <v>0.01</v>
+      </c>
+      <c r="N17" s="27">
+        <f>'BECF-pre-ret'!N17</f>
+        <v>0.01</v>
+      </c>
+      <c r="O17" s="27">
+        <f>'BECF-pre-ret'!O17</f>
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="27">
+        <f>'BECF-pre-ret'!P17</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q17" s="27">
+        <f>'BECF-pre-ret'!Q17</f>
+        <v>0.01</v>
+      </c>
+      <c r="R17" s="27">
+        <f>'BECF-pre-ret'!R17</f>
+        <v>0.01</v>
+      </c>
+      <c r="S17" s="27">
+        <f>'BECF-pre-ret'!S17</f>
+        <v>0.01</v>
+      </c>
+      <c r="T17" s="27">
+        <f>'BECF-pre-ret'!T17</f>
+        <v>0.01</v>
+      </c>
+      <c r="U17" s="27">
+        <f>'BECF-pre-ret'!U17</f>
+        <v>0.01</v>
+      </c>
+      <c r="V17" s="27">
+        <f>'BECF-pre-ret'!V17</f>
+        <v>0.01</v>
+      </c>
+      <c r="W17" s="27">
+        <f>'BECF-pre-ret'!W17</f>
+        <v>0.01</v>
+      </c>
+      <c r="X17" s="27">
+        <f>'BECF-pre-ret'!X17</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="27">
+        <f>'BECF-pre-ret'!Y17</f>
+        <v>0.01</v>
+      </c>
+      <c r="Z17" s="27">
+        <f>'BECF-pre-ret'!Z17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA17" s="27">
+        <f>'BECF-pre-ret'!AA17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AB17" s="27">
+        <f>'BECF-pre-ret'!AB17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AC17" s="27">
+        <f>'BECF-pre-ret'!AC17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AD17" s="27">
+        <f>'BECF-pre-ret'!AD17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AE17" s="27">
+        <f>'BECF-pre-ret'!AE17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF17" s="27">
+        <f>'BECF-pre-ret'!AF17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AG17" s="27">
+        <f>'BECF-pre-ret'!AG17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AH17" s="27">
+        <f>'BECF-pre-ret'!AH17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AI17" s="27">
+        <f>'BECF-pre-ret'!AI17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AJ17" s="27">
+        <f>'BECF-pre-ret'!AJ17</f>
+        <v>0.01</v>
+      </c>
+      <c r="AK17" s="27">
+        <f>'BECF-pre-ret'!AK17</f>
         <v>0.01</v>
       </c>
     </row>
@@ -7172,35 +7280,35 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="14"/>
+    <col min="1" max="1" width="25.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="14"/>
     <col min="3" max="14" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.81640625" style="14"/>
+    <col min="15" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
@@ -7208,12 +7316,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -7356,7 +7464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>97</v>
       </c>
@@ -7499,7 +7607,7 @@
         <v>86866.7</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>98</v>
       </c>
@@ -7642,7 +7750,7 @@
         <v>27738.58</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>99</v>
       </c>
@@ -7785,7 +7893,7 @@
         <v>2753.55</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>100</v>
       </c>
@@ -7928,7 +8036,7 @@
         <v>11460.69</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>101</v>
       </c>
@@ -8071,7 +8179,7 @@
         <v>11579</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>102</v>
       </c>
@@ -8214,7 +8322,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>103</v>
       </c>
@@ -8357,7 +8465,7 @@
         <v>33341.89</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>104</v>
       </c>
@@ -8500,12 +8608,12 @@
         <v>2008.79</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
@@ -8648,7 +8756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -8791,7 +8899,7 @@
         <v>7617.68</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>98</v>
       </c>
@@ -8934,7 +9042,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>99</v>
       </c>
@@ -9077,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>100</v>
       </c>
@@ -9220,7 +9328,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>101</v>
       </c>
@@ -9363,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>102</v>
       </c>
@@ -9506,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>103</v>
       </c>
@@ -9649,7 +9757,7 @@
         <v>311.5</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>104</v>
       </c>
@@ -9792,12 +9900,12 @@
         <v>232.84</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
@@ -9940,7 +10048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>97</v>
       </c>
@@ -10083,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>98</v>
       </c>
@@ -10226,7 +10334,7 @@
         <v>377.95</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
@@ -10369,7 +10477,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>100</v>
       </c>
@@ -10512,7 +10620,7 @@
         <v>86.17</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>101</v>
       </c>
@@ -10655,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -10798,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>103</v>
       </c>
@@ -10941,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>104</v>
       </c>
@@ -11084,12 +11192,12 @@
         <v>170.45</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>50</v>
       </c>
@@ -11232,7 +11340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>97</v>
       </c>
@@ -11375,7 +11483,7 @@
         <v>511.81</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -11518,7 +11626,7 @@
         <v>1138.45</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>99</v>
       </c>
@@ -11661,7 +11769,7 @@
         <v>116.66</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>100</v>
       </c>
@@ -11804,7 +11912,7 @@
         <v>230.37</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>101</v>
       </c>
@@ -11947,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>102</v>
       </c>
@@ -12090,7 +12198,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>103</v>
       </c>
@@ -12233,7 +12341,7 @@
         <v>703.01</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>104</v>
       </c>
@@ -12376,12 +12484,12 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
@@ -12524,7 +12632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>97</v>
       </c>
@@ -12667,7 +12775,7 @@
         <v>1054.1300000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>98</v>
       </c>
@@ -12810,7 +12918,7 @@
         <v>801.03</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>99</v>
       </c>
@@ -12953,7 +13061,7 @@
         <v>133.44999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>100</v>
       </c>
@@ -13096,7 +13204,7 @@
         <v>86.16</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -13239,7 +13347,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>102</v>
       </c>
@@ -13382,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>103</v>
       </c>
@@ -13525,7 +13633,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>104</v>
       </c>
@@ -13668,12 +13776,12 @@
         <v>514.34</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>50</v>
       </c>
@@ -13816,7 +13924,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>97</v>
       </c>
@@ -13959,7 +14067,7 @@
         <v>42016.15</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>98</v>
       </c>
@@ -14102,7 +14210,7 @@
         <v>7314.48</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>99</v>
       </c>
@@ -14245,7 +14353,7 @@
         <v>558.04999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>100</v>
       </c>
@@ -14388,7 +14496,7 @@
         <v>530.83000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>101</v>
       </c>
@@ -14531,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -14674,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>103</v>
       </c>
@@ -14817,7 +14925,7 @@
         <v>649.16999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>104</v>
       </c>
@@ -14960,12 +15068,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>50</v>
       </c>
@@ -15108,7 +15216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>97</v>
       </c>
@@ -15251,7 +15359,7 @@
         <v>9766.9500000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>98</v>
       </c>
@@ -15394,7 +15502,7 @@
         <v>6686.45</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>99</v>
       </c>
@@ -15537,7 +15645,7 @@
         <v>492.7</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>100</v>
       </c>
@@ -15680,7 +15788,7 @@
         <v>4869.46</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>101</v>
       </c>
@@ -15823,7 +15931,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>102</v>
       </c>
@@ -15966,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>103</v>
       </c>
@@ -16109,7 +16217,7 @@
         <v>10903.63</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>104</v>
       </c>
@@ -16252,12 +16360,12 @@
         <v>250.45</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>50</v>
       </c>
@@ -16400,7 +16508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>97</v>
       </c>
@@ -16543,7 +16651,7 @@
         <v>6159.74</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>98</v>
       </c>
@@ -16686,7 +16794,7 @@
         <v>1222.92</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>99</v>
       </c>
@@ -16829,7 +16937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>100</v>
       </c>
@@ -16972,7 +17080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>101</v>
       </c>
@@ -17115,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>102</v>
       </c>
@@ -17258,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>103</v>
       </c>
@@ -17401,7 +17509,7 @@
         <v>402.61</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>104</v>
       </c>
@@ -17544,12 +17652,12 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>50</v>
       </c>
@@ -17692,7 +17800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>97</v>
       </c>
@@ -17835,7 +17943,7 @@
         <v>894.35</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>98</v>
       </c>
@@ -17978,7 +18086,7 @@
         <v>5556.76</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>99</v>
       </c>
@@ -18121,7 +18229,7 @@
         <v>451.61</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>100</v>
       </c>
@@ -18264,7 +18372,7 @@
         <v>2336.4699999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>101</v>
       </c>
@@ -18407,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>102</v>
       </c>
@@ -18550,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>103</v>
       </c>
@@ -18693,7 +18801,7 @@
         <v>17214.169999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>104</v>
       </c>
@@ -18836,12 +18944,12 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>50</v>
       </c>
@@ -18984,7 +19092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>97</v>
       </c>
@@ -19127,7 +19235,7 @@
         <v>17594.21</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>98</v>
       </c>
@@ -19270,7 +19378,7 @@
         <v>1902.25</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>99</v>
       </c>
@@ -19413,7 +19521,7 @@
         <v>927.79</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>100</v>
       </c>
@@ -19556,7 +19664,7 @@
         <v>2509.44</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>101</v>
       </c>
@@ -19699,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>102</v>
       </c>
@@ -19842,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>103</v>
       </c>
@@ -19985,7 +20093,7 @@
         <v>630.33000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>104</v>
       </c>
@@ -20128,12 +20236,12 @@
         <v>122.46</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>50</v>
       </c>
@@ -20276,7 +20384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>97</v>
       </c>
@@ -20419,7 +20527,7 @@
         <v>981.7</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>98</v>
       </c>
@@ -20562,7 +20670,7 @@
         <v>2655.08</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>99</v>
       </c>
@@ -20705,7 +20813,7 @@
         <v>47.39</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>100</v>
       </c>
@@ -20848,7 +20956,7 @@
         <v>674.98</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>101</v>
       </c>
@@ -20991,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>102</v>
       </c>
@@ -21134,7 +21242,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>103</v>
       </c>
@@ -21277,7 +21385,7 @@
         <v>2470.42</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>104</v>
       </c>
@@ -21420,12 +21528,12 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>50</v>
       </c>
@@ -21568,7 +21676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>97</v>
       </c>
@@ -21711,7 +21819,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>98</v>
       </c>
@@ -21854,7 +21962,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>99</v>
       </c>
@@ -21997,7 +22105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>100</v>
       </c>
@@ -22140,7 +22248,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>101</v>
       </c>
@@ -22283,7 +22391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>102</v>
       </c>
@@ -22426,7 +22534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>103</v>
       </c>
@@ -22569,7 +22677,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>104</v>
       </c>
@@ -22712,12 +22820,12 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>50</v>
       </c>
@@ -22860,7 +22968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>97</v>
       </c>
@@ -23003,7 +23111,7 @@
         <v>115.48</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>98</v>
       </c>
@@ -23146,7 +23254,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>99</v>
       </c>
@@ -23289,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>100</v>
       </c>
@@ -23432,7 +23540,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>101</v>
       </c>
@@ -23575,7 +23683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>102</v>
       </c>
@@ -23718,7 +23826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>103</v>
       </c>
@@ -23861,7 +23969,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>104</v>
       </c>
@@ -24004,12 +24112,12 @@
         <v>129.06</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>50</v>
       </c>
@@ -24152,7 +24260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>97</v>
       </c>
@@ -24295,7 +24403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>98</v>
       </c>
@@ -24438,7 +24546,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>99</v>
       </c>
@@ -24581,7 +24689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>100</v>
       </c>
@@ -24724,7 +24832,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>101</v>
       </c>
@@ -24867,7 +24975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>102</v>
       </c>
@@ -25010,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>103</v>
       </c>
@@ -25153,7 +25261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>104</v>
       </c>
@@ -25329,16 +25437,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -25346,7 +25454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>122</v>
       </c>
@@ -25359,7 +25467,7 @@
         <v>78221894.400000006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>124</v>
       </c>
@@ -25372,7 +25480,7 @@
         <v>197677459.19999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>125</v>
       </c>
@@ -25385,7 +25493,7 @@
         <v>116840880</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -25398,7 +25506,7 @@
         <v>712919284.79999995</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>127</v>
       </c>
@@ -25411,7 +25519,7 @@
         <v>111967254</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>128</v>
       </c>
@@ -25424,7 +25532,7 @@
         <v>23825973.600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>130</v>
       </c>
@@ -25434,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>131</v>
       </c>
@@ -25447,7 +25555,7 @@
         <v>21546972</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>132</v>
       </c>
@@ -25457,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -25470,43 +25578,43 @@
         <v>31663282.800000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" t="b">
         <f>SUM(C2:C17)=SUM(Table130[2018])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>170</v>
       </c>
@@ -25514,7 +25622,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>122</v>
       </c>
@@ -25522,16 +25630,16 @@
         <f>'Electricity Generation'!O14</f>
         <v>46520.81</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <f>C21*1000</f>
         <v>46520810</v>
       </c>
       <c r="E21" s="31">
-        <f>D21/D2</f>
+        <f t="shared" ref="E21:E26" si="1">D21/D2</f>
         <v>0.59472875665869829</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>124</v>
       </c>
@@ -25539,16 +25647,16 @@
         <f>'Electricity Generation'!O15</f>
         <v>66979.59</v>
       </c>
-      <c r="D22" s="42">
-        <f t="shared" ref="D22:D30" si="1">C22*1000</f>
+      <c r="D22" s="41">
+        <f t="shared" ref="D22:D30" si="2">C22*1000</f>
         <v>66979590</v>
       </c>
       <c r="E22" s="31">
-        <f>D22/D3</f>
+        <f t="shared" si="1"/>
         <v>0.33883271401335374</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>125</v>
       </c>
@@ -25556,16 +25664,16 @@
         <f>'Electricity Generation'!O13</f>
         <v>95029.01</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
+        <f t="shared" si="2"/>
+        <v>95029010</v>
+      </c>
+      <c r="E23" s="31">
         <f t="shared" si="1"/>
-        <v>95029010</v>
-      </c>
-      <c r="E23" s="31">
-        <f>D23/D4</f>
         <v>0.81331987571473274</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>126</v>
       </c>
@@ -25573,16 +25681,16 @@
         <f>'Electricity Generation'!O9</f>
         <v>382163.9</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
+        <f t="shared" si="2"/>
+        <v>382163900</v>
+      </c>
+      <c r="E24" s="31">
         <f t="shared" si="1"/>
-        <v>382163900</v>
-      </c>
-      <c r="E24" s="31">
-        <f>D24/D5</f>
         <v>0.5360549337744609</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>127</v>
       </c>
@@ -25590,16 +25698,16 @@
         <f>'Electricity Generation'!O10</f>
         <v>32814.01</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
+        <f t="shared" si="2"/>
+        <v>32814010.000000004</v>
+      </c>
+      <c r="E25" s="31">
         <f t="shared" si="1"/>
-        <v>32814010.000000004</v>
-      </c>
-      <c r="E25" s="31">
-        <f>D25/D6</f>
         <v>0.29306791787534597</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>128</v>
       </c>
@@ -25607,27 +25715,27 @@
         <f>'Electricity Generation'!O12</f>
         <v>2191</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
+        <f t="shared" si="2"/>
+        <v>2191000</v>
+      </c>
+      <c r="E26" s="31">
         <f t="shared" si="1"/>
-        <v>2191000</v>
-      </c>
-      <c r="E26" s="31">
-        <f>D26/D7</f>
         <v>9.1958466704588307E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>130</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="42">
-        <f t="shared" si="1"/>
+      <c r="D27" s="41">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>131</v>
       </c>
@@ -25635,8 +25743,8 @@
         <f>'Electricity Generation'!O11</f>
         <v>9260.9699999999993</v>
       </c>
-      <c r="D28" s="42">
-        <f t="shared" si="1"/>
+      <c r="D28" s="41">
+        <f t="shared" si="2"/>
         <v>9260970</v>
       </c>
       <c r="E28" s="31">
@@ -25644,18 +25752,18 @@
         <v>0.42980377938951236</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="42">
-        <f t="shared" si="1"/>
+      <c r="D29" s="41">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -25663,8 +25771,8 @@
         <f>'Electricity Generation'!O16</f>
         <v>4189.29</v>
       </c>
-      <c r="D30" s="42">
-        <f t="shared" si="1"/>
+      <c r="D30" s="41">
+        <f t="shared" si="2"/>
         <v>4189290</v>
       </c>
       <c r="E30" s="31">
@@ -25672,32 +25780,32 @@
         <v>0.13230750666194346</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>148</v>
       </c>
@@ -25715,40 +25823,40 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="18.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="14"/>
     <col min="3" max="14" width="0" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="14"/>
+    <col min="15" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -25891,7 +25999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>97</v>
       </c>
@@ -25934,7 +26042,7 @@
       <c r="N9" s="14">
         <v>390771.5</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="40">
         <v>382163.9</v>
       </c>
       <c r="P9" s="14">
@@ -26034,7 +26142,7 @@
         <v>446455.8</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>98</v>
       </c>
@@ -26077,7 +26185,7 @@
       <c r="N10" s="14">
         <v>31197</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <v>32814.01</v>
       </c>
       <c r="P10" s="14">
@@ -26177,7 +26285,7 @@
         <v>188617.4</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>99</v>
       </c>
@@ -26220,7 +26328,7 @@
       <c r="N11" s="14">
         <v>6300.36</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="40">
         <v>9260.9699999999993</v>
       </c>
       <c r="P11" s="14">
@@ -26320,7 +26428,7 @@
         <v>7658.64</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>100</v>
       </c>
@@ -26363,7 +26471,7 @@
       <c r="N12" s="14">
         <v>2001</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="40">
         <v>2191</v>
       </c>
       <c r="P12" s="14">
@@ -26463,7 +26571,7 @@
         <v>62179.97</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>101</v>
       </c>
@@ -26506,7 +26614,7 @@
       <c r="N13" s="14">
         <v>95565</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="40">
         <v>95029.01</v>
       </c>
       <c r="P13" s="14">
@@ -26606,7 +26714,7 @@
         <v>96063.03</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>102</v>
       </c>
@@ -26649,7 +26757,7 @@
       <c r="N14" s="14">
         <v>55265.55</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="40">
         <v>46520.81</v>
       </c>
       <c r="P14" s="14">
@@ -26749,7 +26857,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>103</v>
       </c>
@@ -26792,7 +26900,7 @@
       <c r="N15" s="14">
         <v>62934.239999999998</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="40">
         <v>66979.59</v>
       </c>
       <c r="P15" s="14">
@@ -26892,7 +27000,7 @@
         <v>73043.59</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>104</v>
       </c>
@@ -26935,7 +27043,7 @@
       <c r="N16" s="14">
         <v>4150.07</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="40">
         <v>4189.29</v>
       </c>
       <c r="P16" s="14">
@@ -27035,12 +27143,12 @@
         <v>1831.8</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
@@ -27183,7 +27291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -27326,7 +27434,7 @@
         <v>52458.85</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>98</v>
       </c>
@@ -27469,7 +27577,7 @@
         <v>982.55</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>99</v>
       </c>
@@ -27612,7 +27720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>100</v>
       </c>
@@ -27755,7 +27863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>101</v>
       </c>
@@ -27898,7 +28006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>102</v>
       </c>
@@ -28041,7 +28149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>103</v>
       </c>
@@ -28184,7 +28292,7 @@
         <v>1413.07</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>104</v>
       </c>
@@ -28327,12 +28435,12 @@
         <v>189.45</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
@@ -28475,7 +28583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>97</v>
       </c>
@@ -28618,7 +28726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>98</v>
       </c>
@@ -28761,7 +28869,7 @@
         <v>1885.59</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
@@ -28904,7 +29012,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>100</v>
       </c>
@@ -29047,7 +29155,7 @@
         <v>160.61000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>101</v>
       </c>
@@ -29190,7 +29298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -29333,7 +29441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>103</v>
       </c>
@@ -29476,7 +29584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>104</v>
       </c>
@@ -29619,12 +29727,12 @@
         <v>48.27</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>50</v>
       </c>
@@ -29767,7 +29875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>97</v>
       </c>
@@ -29910,7 +30018,7 @@
         <v>1207.82</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -30053,7 +30161,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>99</v>
       </c>
@@ -30196,7 +30304,7 @@
         <v>200.63</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>100</v>
       </c>
@@ -30339,7 +30447,7 @@
         <v>528.46</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>101</v>
       </c>
@@ -30482,7 +30590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>102</v>
       </c>
@@ -30625,7 +30733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>103</v>
       </c>
@@ -30768,7 +30876,7 @@
         <v>2932.47</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>104</v>
       </c>
@@ -30911,12 +31019,12 @@
         <v>407.56</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
@@ -31059,7 +31167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>97</v>
       </c>
@@ -31202,7 +31310,7 @@
         <v>3123.74</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>98</v>
       </c>
@@ -31345,7 +31453,7 @@
         <v>3743.52</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>99</v>
       </c>
@@ -31488,7 +31596,7 @@
         <v>509.39</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>100</v>
       </c>
@@ -31631,7 +31739,7 @@
         <v>1042.67</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -31774,7 +31882,7 @@
         <v>5353.24</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>102</v>
       </c>
@@ -31917,7 +32025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>103</v>
       </c>
@@ -32060,7 +32168,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>104</v>
       </c>
@@ -32203,12 +32311,12 @@
         <v>90.41</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>50</v>
       </c>
@@ -32351,7 +32459,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>97</v>
       </c>
@@ -32494,7 +32602,7 @@
         <v>217546.8</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>98</v>
       </c>
@@ -32637,7 +32745,7 @@
         <v>29345.68</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>99</v>
       </c>
@@ -32780,7 +32888,7 @@
         <v>1557.93</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>100</v>
       </c>
@@ -32923,7 +33031,7 @@
         <v>9235.25</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>101</v>
       </c>
@@ -33066,7 +33174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -33209,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>103</v>
       </c>
@@ -33352,7 +33460,7 @@
         <v>186.63</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>104</v>
       </c>
@@ -33495,12 +33603,12 @@
         <v>402.43</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>50</v>
       </c>
@@ -33643,7 +33751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>97</v>
       </c>
@@ -33786,7 +33894,7 @@
         <v>42724.63</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>98</v>
       </c>
@@ -33929,7 +34037,7 @@
         <v>73400.41</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>99</v>
       </c>
@@ -34072,7 +34180,7 @@
         <v>783.61</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>100</v>
       </c>
@@ -34215,7 +34323,7 @@
         <v>30297.55</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>101</v>
       </c>
@@ -34358,7 +34466,7 @@
         <v>90709.79</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>102</v>
       </c>
@@ -34501,7 +34609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>103</v>
       </c>
@@ -34644,7 +34752,7 @@
         <v>8741.2999999999993</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>104</v>
       </c>
@@ -34787,12 +34895,12 @@
         <v>141.01</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>50</v>
       </c>
@@ -34935,7 +35043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>97</v>
       </c>
@@ -35078,7 +35186,7 @@
         <v>39040.559999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>98</v>
       </c>
@@ -35221,7 +35329,7 @@
         <v>6301.06</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>99</v>
       </c>
@@ -35364,7 +35472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>100</v>
       </c>
@@ -35507,7 +35615,7 @@
         <v>2353.86</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>101</v>
       </c>
@@ -35650,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>102</v>
       </c>
@@ -35793,7 +35901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>103</v>
       </c>
@@ -35936,7 +36044,7 @@
         <v>168.86</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>104</v>
       </c>
@@ -36079,12 +36187,12 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>50</v>
       </c>
@@ -36227,7 +36335,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>97</v>
       </c>
@@ -36370,7 +36478,7 @@
         <v>505.55</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>98</v>
       </c>
@@ -36513,7 +36621,7 @@
         <v>35844.17</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>99</v>
       </c>
@@ -36656,7 +36764,7 @@
         <v>1278.17</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>100</v>
       </c>
@@ -36799,7 +36907,7 @@
         <v>8876.16</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>101</v>
       </c>
@@ -36942,7 +37050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>102</v>
       </c>
@@ -37085,7 +37193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>103</v>
       </c>
@@ -37228,7 +37336,7 @@
         <v>49880.18</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>104</v>
       </c>
@@ -37371,12 +37479,12 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>50</v>
       </c>
@@ -37519,7 +37627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>97</v>
       </c>
@@ -37662,7 +37770,7 @@
         <v>86796.58</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>98</v>
       </c>
@@ -37805,7 +37913,7 @@
         <v>19386.72</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>99</v>
       </c>
@@ -37948,7 +38056,7 @@
         <v>3129.69</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>100</v>
       </c>
@@ -38091,7 +38199,7 @@
         <v>8396.49</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>101</v>
       </c>
@@ -38234,7 +38342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>102</v>
       </c>
@@ -38377,7 +38485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>103</v>
       </c>
@@ -38520,7 +38628,7 @@
         <v>2433.8200000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>104</v>
       </c>
@@ -38663,12 +38771,12 @@
         <v>171.47</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>50</v>
       </c>
@@ -38811,7 +38919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>97</v>
       </c>
@@ -38954,7 +39062,7 @@
         <v>2285.31</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>98</v>
       </c>
@@ -39097,7 +39205,7 @@
         <v>13656.86</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>99</v>
       </c>
@@ -39240,7 +39348,7 @@
         <v>112.74</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>100</v>
       </c>
@@ -39383,7 +39491,7 @@
         <v>1251.07</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>101</v>
       </c>
@@ -39526,7 +39634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>102</v>
       </c>
@@ -39669,7 +39777,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>103</v>
       </c>
@@ -39812,7 +39920,7 @@
         <v>7200.9</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>104</v>
       </c>
@@ -39955,12 +40063,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>50</v>
       </c>
@@ -40103,7 +40211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>97</v>
       </c>
@@ -40246,7 +40354,7 @@
         <v>471.9</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>98</v>
       </c>
@@ -40389,7 +40497,7 @@
         <v>64.64</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>99</v>
       </c>
@@ -40532,7 +40640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>100</v>
       </c>
@@ -40675,7 +40783,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>101</v>
       </c>
@@ -40818,7 +40926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>102</v>
       </c>
@@ -40961,7 +41069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>103</v>
       </c>
@@ -41104,7 +41212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>104</v>
       </c>
@@ -41247,12 +41355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>50</v>
       </c>
@@ -41395,7 +41503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>97</v>
       </c>
@@ -41538,7 +41646,7 @@
         <v>294.02999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>98</v>
       </c>
@@ -41681,7 +41789,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>99</v>
       </c>
@@ -41824,7 +41932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>100</v>
       </c>
@@ -41967,7 +42075,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>101</v>
       </c>
@@ -42110,7 +42218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>102</v>
       </c>
@@ -42253,7 +42361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>103</v>
       </c>
@@ -42396,7 +42504,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>104</v>
       </c>
@@ -42539,12 +42647,12 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>50</v>
       </c>
@@ -42687,7 +42795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>97</v>
       </c>
@@ -42830,7 +42938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>98</v>
       </c>
@@ -42973,7 +43081,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>99</v>
       </c>
@@ -43116,7 +43224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>100</v>
       </c>
@@ -43259,7 +43367,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>101</v>
       </c>
@@ -43402,7 +43510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>102</v>
       </c>
@@ -43545,7 +43653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>103</v>
       </c>
@@ -43688,7 +43796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>104</v>
       </c>
@@ -43860,35 +43968,35 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="8.81640625" style="14"/>
-    <col min="12" max="15" width="9.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.81640625" style="14"/>
+    <col min="1" max="11" width="8.85546875" style="14"/>
+    <col min="12" max="15" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
@@ -43896,12 +44004,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -44044,7 +44152,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>97</v>
       </c>
@@ -44187,7 +44295,7 @@
         <v>423424.3</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>98</v>
       </c>
@@ -44330,7 +44438,7 @@
         <v>113811.4</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>99</v>
       </c>
@@ -44473,7 +44581,7 @@
         <v>9335.09</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>100</v>
       </c>
@@ -44616,7 +44724,7 @@
         <v>16735.41</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>101</v>
       </c>
@@ -44759,7 +44867,7 @@
         <v>89379.16</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>102</v>
       </c>
@@ -44902,7 +45010,7 @@
         <v>1719.47</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>103</v>
       </c>
@@ -45045,7 +45153,7 @@
         <v>119782.7</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>104</v>
       </c>
@@ -45188,7 +45296,7 @@
         <v>3798.51</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -45252,12 +45360,12 @@
       <c r="AT17" s="20"/>
       <c r="AU17" s="20"/>
     </row>
-    <row r="18" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
@@ -45400,7 +45508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -45543,7 +45651,7 @@
         <v>46935.91</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>98</v>
       </c>
@@ -45686,7 +45794,7 @@
         <v>199.94</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>99</v>
       </c>
@@ -45829,7 +45937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>100</v>
       </c>
@@ -45972,7 +46080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>101</v>
       </c>
@@ -46115,7 +46223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>102</v>
       </c>
@@ -46258,7 +46366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>103</v>
       </c>
@@ -46401,7 +46509,7 @@
         <v>431.07</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>104</v>
       </c>
@@ -46544,12 +46652,12 @@
         <v>312.82</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
@@ -46692,7 +46800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>97</v>
       </c>
@@ -46835,7 +46943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>98</v>
       </c>
@@ -46978,7 +47086,7 @@
         <v>1875.48</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
@@ -47121,7 +47229,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>100</v>
       </c>
@@ -47264,7 +47372,7 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>101</v>
       </c>
@@ -47407,7 +47515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>102</v>
       </c>
@@ -47550,7 +47658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>103</v>
       </c>
@@ -47693,7 +47801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>104</v>
       </c>
@@ -47836,12 +47944,12 @@
         <v>237.14</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>50</v>
       </c>
@@ -47984,7 +48092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>97</v>
       </c>
@@ -48127,7 +48235,7 @@
         <v>1535.53</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -48270,7 +48378,7 @@
         <v>3759.08</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>99</v>
       </c>
@@ -48413,7 +48521,7 @@
         <v>216.03</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>100</v>
       </c>
@@ -48556,7 +48664,7 @@
         <v>417.06</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>101</v>
       </c>
@@ -48699,7 +48807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>102</v>
       </c>
@@ -48842,7 +48950,7 @@
         <v>1333.13</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>103</v>
       </c>
@@ -48985,7 +49093,7 @@
         <v>2534.27</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>104</v>
       </c>
@@ -49128,12 +49236,12 @@
         <v>232.14</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
@@ -49276,7 +49384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>97</v>
       </c>
@@ -49419,7 +49527,7 @@
         <v>3361.23</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>98</v>
       </c>
@@ -49562,7 +49670,7 @@
         <v>2936.62</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>99</v>
       </c>
@@ -49705,7 +49813,7 @@
         <v>540.04999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>100</v>
       </c>
@@ -49848,7 +49956,7 @@
         <v>154.11000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -49991,7 +50099,7 @@
         <v>5353.25</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>102</v>
       </c>
@@ -50134,7 +50242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>103</v>
       </c>
@@ -50277,7 +50385,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>104</v>
       </c>
@@ -50420,12 +50528,12 @@
         <v>954.68</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>50</v>
       </c>
@@ -50568,7 +50676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>97</v>
       </c>
@@ -50711,7 +50819,7 @@
         <v>205340.3</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>98</v>
       </c>
@@ -50854,7 +50962,7 @@
         <v>23671.96</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>99</v>
       </c>
@@ -50997,7 +51105,7 @@
         <v>2346.4899999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>100</v>
       </c>
@@ -51140,7 +51248,7 @@
         <v>962.28</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>101</v>
       </c>
@@ -51283,7 +51391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>102</v>
       </c>
@@ -51426,7 +51534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>103</v>
       </c>
@@ -51569,7 +51677,7 @@
         <v>163.61000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>104</v>
       </c>
@@ -51712,12 +51820,12 @@
         <v>393.06</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>50</v>
       </c>
@@ -51860,7 +51968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>97</v>
       </c>
@@ -52003,7 +52111,7 @@
         <v>38597.47</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>98</v>
       </c>
@@ -52146,7 +52254,7 @@
         <v>22762.29</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>99</v>
       </c>
@@ -52289,7 +52397,7 @@
         <v>781.88</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>100</v>
       </c>
@@ -52432,7 +52540,7 @@
         <v>6157.31</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>101</v>
       </c>
@@ -52575,7 +52683,7 @@
         <v>84025.91</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>102</v>
       </c>
@@ -52718,7 +52826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>103</v>
       </c>
@@ -52861,7 +52969,7 @@
         <v>33666.79</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>104</v>
       </c>
@@ -53004,12 +53112,12 @@
         <v>1110.31</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>50</v>
       </c>
@@ -53152,7 +53260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>97</v>
       </c>
@@ -53295,7 +53403,7 @@
         <v>33370.89</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>98</v>
       </c>
@@ -53438,7 +53546,7 @@
         <v>4397.57</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>99</v>
       </c>
@@ -53581,7 +53689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>100</v>
       </c>
@@ -53724,7 +53832,7 @@
         <v>204.72</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>101</v>
       </c>
@@ -53867,7 +53975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>102</v>
       </c>
@@ -54010,7 +54118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>103</v>
       </c>
@@ -54153,7 +54261,7 @@
         <v>699.13</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>104</v>
       </c>
@@ -54296,12 +54404,12 @@
         <v>33.81</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>50</v>
       </c>
@@ -54444,7 +54552,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>97</v>
       </c>
@@ -54587,7 +54695,7 @@
         <v>1634.95</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>98</v>
       </c>
@@ -54730,7 +54838,7 @@
         <v>38254.83</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>99</v>
       </c>
@@ -54873,7 +54981,7 @@
         <v>1878.64</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>100</v>
       </c>
@@ -55016,7 +55124,7 @@
         <v>3278.44</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>101</v>
       </c>
@@ -55159,7 +55267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>102</v>
       </c>
@@ -55302,7 +55410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>103</v>
       </c>
@@ -55445,7 +55553,7 @@
         <v>65045.67</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>104</v>
       </c>
@@ -55588,12 +55696,12 @@
         <v>52.42</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>50</v>
       </c>
@@ -55736,7 +55844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>97</v>
       </c>
@@ -55879,7 +55987,7 @@
         <v>88123.5</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>98</v>
       </c>
@@ -56022,7 +56130,7 @@
         <v>6546.04</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>99</v>
       </c>
@@ -56165,7 +56273,7 @@
         <v>3275.15</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>100</v>
       </c>
@@ -56308,7 +56416,7 @@
         <v>4265.51</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>101</v>
       </c>
@@ -56451,7 +56559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>102</v>
       </c>
@@ -56594,7 +56702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>103</v>
       </c>
@@ -56737,7 +56845,7 @@
         <v>2260.06</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>104</v>
       </c>
@@ -56880,12 +56988,12 @@
         <v>131.18</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>50</v>
       </c>
@@ -57028,7 +57136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>97</v>
       </c>
@@ -57171,7 +57279,7 @@
         <v>3834.1</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>98</v>
       </c>
@@ -57314,7 +57422,7 @@
         <v>9303.3799999999992</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>99</v>
       </c>
@@ -57457,7 +57565,7 @@
         <v>204.51</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>100</v>
       </c>
@@ -57600,7 +57708,7 @@
         <v>1112.04</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>101</v>
       </c>
@@ -57743,7 +57851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>102</v>
       </c>
@@ -57886,7 +57994,7 @@
         <v>386.34</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>103</v>
       </c>
@@ -58029,7 +58137,7 @@
         <v>14898.9</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>104</v>
       </c>
@@ -58172,12 +58280,12 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>50</v>
       </c>
@@ -58320,7 +58428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>97</v>
       </c>
@@ -58463,7 +58571,7 @@
         <v>406.35</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>98</v>
       </c>
@@ -58606,7 +58714,7 @@
         <v>60.52</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>99</v>
       </c>
@@ -58749,7 +58857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>100</v>
       </c>
@@ -58892,7 +59000,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>101</v>
       </c>
@@ -59035,7 +59143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>102</v>
       </c>
@@ -59178,7 +59286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>103</v>
       </c>
@@ -59321,7 +59429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>104</v>
       </c>
@@ -59464,12 +59572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>50</v>
       </c>
@@ -59612,7 +59720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>97</v>
       </c>
@@ -59755,7 +59863,7 @@
         <v>284.10000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>98</v>
       </c>
@@ -59898,7 +60006,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>99</v>
       </c>
@@ -60041,7 +60149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>100</v>
       </c>
@@ -60184,7 +60292,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>101</v>
       </c>
@@ -60327,7 +60435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>102</v>
       </c>
@@ -60470,7 +60578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>103</v>
       </c>
@@ -60613,7 +60721,7 @@
         <v>83.14</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>104</v>
       </c>
@@ -60756,12 +60864,12 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>50</v>
       </c>
@@ -60904,7 +61012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>97</v>
       </c>
@@ -61047,7 +61155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>98</v>
       </c>
@@ -61190,7 +61298,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>99</v>
       </c>
@@ -61333,7 +61441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>100</v>
       </c>
@@ -61476,7 +61584,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>101</v>
       </c>
@@ -61619,7 +61727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>102</v>
       </c>
@@ -61762,7 +61870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>103</v>
       </c>
@@ -61905,7 +62013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>104</v>
       </c>
@@ -62078,17 +62186,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.81640625" style="26"/>
+    <col min="2" max="3" width="10.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>119</v>
       </c>
@@ -62099,7 +62207,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -62114,7 +62222,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -62129,7 +62237,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -62144,7 +62252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -62159,7 +62267,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -62174,7 +62282,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -62192,7 +62300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -62207,7 +62315,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -62222,7 +62330,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -62237,7 +62345,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -62252,7 +62360,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -62267,7 +62375,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -62282,7 +62390,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -62313,23 +62421,23 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="5" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="5" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>137</v>
       </c>
@@ -62355,7 +62463,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>102</v>
       </c>
@@ -62378,7 +62486,7 @@
         <v>0.10930801376727699</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -62399,7 +62507,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>101</v>
       </c>
@@ -62422,7 +62530,7 @@
         <v>0.14549862169926403</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>97</v>
       </c>
@@ -62445,7 +62553,7 @@
         <v>0.60237904251979513</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>98</v>
       </c>
@@ -62468,7 +62576,7 @@
         <v>1.8846170432992984E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>100</v>
       </c>
@@ -62491,7 +62599,7 @@
         <v>2.5289830487467049E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>130</v>
       </c>
@@ -62500,7 +62608,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>99</v>
       </c>
@@ -62526,7 +62634,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>132</v>
       </c>
@@ -62535,7 +62643,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>104</v>
       </c>
@@ -62556,7 +62664,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>103</v>
       </c>
@@ -62580,32 +62688,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="21" t="s">
         <v>149</v>
       </c>
@@ -62619,17 +62727,17 @@
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="21"/>
       <c r="D20" s="11"/>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="21"/>
       <c r="D21" s="11"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -62643,7 +62751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -62671,7 +62779,7 @@
         <v>3.2995265173060395E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>156</v>
       </c>
@@ -62700,7 +62808,7 @@
       </c>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -62722,7 +62830,7 @@
       </c>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="30">
         <f>SUM(E23:E25)</f>
         <v>0.10652735818127426</v>
@@ -62732,7 +62840,7 @@
         <v>0.10954657896740368</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23">
         <v>2005</v>
@@ -62765,7 +62873,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>162</v>
       </c>
@@ -62810,22 +62918,22 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>166</v>
       </c>
@@ -62833,12 +62941,12 @@
         <v>6838.2918299999992</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -62856,51 +62964,51 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="27" customWidth="1"/>
-    <col min="3" max="5" width="9.1796875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="27" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.81640625" style="27"/>
+    <col min="37" max="37" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="28">
         <v>2018</v>
       </c>
@@ -63045,12 +63153,12 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B3</f>
         <v>hard coal</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A2,'CF calcs'!$B$21:$B$36,0))</f>
         <v>0.59472875665869829</v>
       </c>
@@ -63195,12 +63303,12 @@
         <v>0.59472875665869829</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B4</f>
         <v>natural gas nonpeaker</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A3,'CF calcs'!$B$21:$B$36,0))</f>
         <v>0.33883271401335374</v>
       </c>
@@ -63345,12 +63453,12 @@
         <v>0.33883271401335374</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B5</f>
         <v>nuclear</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A4,'CF calcs'!$B$21:$B$36,0))</f>
         <v>0.81331987571473274</v>
       </c>
@@ -63495,12 +63603,12 @@
         <v>0.81331987571473274</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B6</f>
         <v>hydro</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A5,'CF calcs'!$B$21:$B$36,0))</f>
         <v>0.5360549337744609</v>
       </c>
@@ -63645,12 +63753,12 @@
         <v>0.5360549337744609</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B7</f>
         <v>onshore wind</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A6,'CF calcs'!$B$21:$B$36,0))</f>
         <v>0.29306791787534597</v>
       </c>
@@ -63795,12 +63903,12 @@
         <v>0.29306791787534597</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B8</f>
         <v>solar PV</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A7,'CF calcs'!$B$21:$B$36,0))</f>
         <v>9.1958466704588307E-2</v>
       </c>
@@ -63945,13 +64053,13 @@
         <v>9.1958466704588307E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B9</f>
         <v>solar thermal</v>
       </c>
       <c r="B8" s="38">
-        <f t="shared" ref="B3:B17" si="4">C8</f>
+        <f t="shared" ref="B8:B17" si="4">C8</f>
         <v>0.01</v>
       </c>
       <c r="C8" s="38">
@@ -64094,7 +64202,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B10</f>
         <v>biomass</v>
@@ -64244,7 +64352,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B11</f>
         <v>geothermal</v>
@@ -64393,12 +64501,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B12</f>
         <v>petroleum</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <f>INDEX('CF calcs'!$E$21:$E$30,MATCH($A11,'CF calcs'!$B$21:$B$36,0))</f>
         <v>0.13230750666194346</v>
       </c>
@@ -64543,7 +64651,7 @@
         <v>0.13230750666194346</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="str">
         <f>'Pre-ret calculations 2021'!B13</f>
         <v>natural gas peaker</v>
@@ -64693,7 +64801,7 @@
         <v>0.2034</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B14</f>
         <v>lignite</v>
@@ -64842,7 +64950,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B15</f>
         <v>offshore wind</v>
@@ -64991,7 +65099,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B16</f>
         <v>crude oil</v>
@@ -65106,7 +65214,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B17</f>
         <v>heavy or residual fuel oil</v>
@@ -65221,7 +65329,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="str">
         <f>'Pre-ret calculations 2021'!B18</f>
         <v>municipal solid waste</v>
@@ -65352,47 +65460,47 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="27" customWidth="1"/>
-    <col min="3" max="5" width="9.1796875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="27" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.81640625" style="27"/>
+    <col min="37" max="37" width="9.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="28">
         <v>2018</v>
       </c>
@@ -65537,7 +65645,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>122</v>
       </c>
@@ -65686,7 +65794,7 @@
         <v>0.59472875665869829</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>124</v>
       </c>
@@ -65835,7 +65943,7 @@
         <v>0.33883271401335374</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>125</v>
       </c>
@@ -65984,7 +66092,7 @@
         <v>0.81331987571473274</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>126</v>
       </c>
@@ -66133,7 +66241,7 @@
         <v>0.5360549337744609</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>127</v>
       </c>
@@ -66282,7 +66390,7 @@
         <v>0.29306791787534597</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>128</v>
       </c>
@@ -66431,7 +66539,7 @@
         <v>9.1958466704588307E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>130</v>
       </c>
@@ -66580,7 +66688,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>131</v>
       </c>
@@ -66729,7 +66837,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>132</v>
       </c>
@@ -66878,7 +66986,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>40</v>
       </c>
@@ -67027,7 +67135,7 @@
         <v>0.13230750666194346</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>133</v>
       </c>
@@ -67176,7 +67284,7 @@
         <v>0.2034</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>145</v>
       </c>
@@ -67325,7 +67433,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>135</v>
       </c>
@@ -67474,7 +67582,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>146</v>
       </c>
@@ -67623,7 +67731,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>147</v>
       </c>
@@ -67772,7 +67880,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>148</v>
       </c>
@@ -67927,23 +68035,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68207,21 +68304,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE083A-8560-4254-BAB6-CA854611691B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86209414-7AAC-4756-A165-17A53274AF22}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -68247,9 +68352,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86209414-7AAC-4756-A165-17A53274AF22}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21BE083A-8560-4254-BAB6-CA854611691B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>